--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e8ce84066fb867c/Dokumente/UNI/Trampolin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{090C9434-9887-49DD-98D1-FE7E4C8A98FB}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1019C1-E579-4C12-AE23-3893FB15A331}"/>
   <bookViews>
     <workbookView xWindow="31305" yWindow="900" windowWidth="20295" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,17 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -174,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="177">
   <si>
     <t>classification algorithm</t>
   </si>
@@ -269,6 +280,9 @@
     <t>runs=10, act_func='tanh', loss='kl_divergence', optim='adam', epochs=60</t>
   </si>
   <si>
+    <t>kernel = 'linear'</t>
+  </si>
+  <si>
     <t>percentage_mean_1</t>
   </si>
   <si>
@@ -695,20 +709,20 @@
     <t>0.386</t>
   </si>
   <si>
+    <t>annotation</t>
+  </si>
+  <si>
     <t>Everything is with early stopping enabled</t>
   </si>
   <si>
     <t>monitor='loss', patience=3</t>
-  </si>
-  <si>
-    <t>annotation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1286,110 +1300,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,11 +1348,131 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,7 +1500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1731,23 +1796,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P370"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H94" sqref="H91:H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="33" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
@@ -1756,83 +1820,84 @@
     <col min="14" max="14" width="45.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="45.7109375" style="3" customWidth="1"/>
+    <col min="16384" max="16384" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="66" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="66" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="66" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="66" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="67"/>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="44"/>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="68" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="68" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="68" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="68" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="68" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="69"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="P2" s="46"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1">
+      <c r="A3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1850,7 +1915,9 @@
       <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="32">
+        <v>0.9294</v>
+      </c>
       <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1868,9 +1935,9 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="34"/>
+    <row r="4" spans="1:16" s="5" customFormat="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1953,9 @@
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="33">
+        <v>0.78620000000000001</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1904,9 +1973,9 @@
       </c>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="34"/>
+    <row r="5" spans="1:16" s="5" customFormat="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1991,9 @@
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="33">
+        <v>0.77110000000000001</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1940,9 +2011,9 @@
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A6" s="51"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1958,7 +2029,9 @@
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1976,10 +2049,10 @@
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39" t="s">
-        <v>31</v>
+    <row r="7" spans="1:16" s="5" customFormat="1">
+      <c r="A7" s="51"/>
+      <c r="B7" s="69" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -1991,12 +2064,14 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="33">
+        <v>0.93240000000000001</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2014,25 +2089,27 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:16" s="5" customFormat="1">
+      <c r="A8" s="51"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="33">
+        <v>0.78749999999999998</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2050,25 +2127,27 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
+    <row r="9" spans="1:16" s="5" customFormat="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="33">
+        <v>0.77190000000000003</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
@@ -2086,9 +2165,9 @@
       </c>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="40"/>
+    <row r="10" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A10" s="51"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2104,7 +2183,9 @@
       <c r="G10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2122,27 +2203,29 @@
       </c>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="41" t="s">
-        <v>37</v>
+    <row r="11" spans="1:16" s="5" customFormat="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="33">
+        <v>0.93530000000000002</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2160,25 +2243,27 @@
       </c>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="34"/>
+    <row r="12" spans="1:16" s="5" customFormat="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="33">
+        <v>0.78839999999999999</v>
+      </c>
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2196,25 +2281,27 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
+    <row r="13" spans="1:16" s="5" customFormat="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="33">
+        <v>0.77259999999999995</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
@@ -2232,9 +2319,9 @@
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A14" s="51"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="14" t="s">
         <v>28</v>
       </c>
@@ -2250,7 +2337,9 @@
       <c r="G14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="14" t="s">
         <v>28</v>
       </c>
@@ -2268,10 +2357,10 @@
       </c>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="31" t="s">
-        <v>44</v>
+    <row r="15" spans="1:16" s="5" customFormat="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="77" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -2284,7 +2373,7 @@
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2302,9 +2391,9 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="31"/>
+    <row r="16" spans="1:16" s="5" customFormat="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -2316,7 +2405,7 @@
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
@@ -2334,9 +2423,9 @@
       </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:16" s="5" customFormat="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
@@ -2348,7 +2437,7 @@
       <c r="G17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="3" t="s">
         <v>25</v>
       </c>
@@ -2366,9 +2455,9 @@
       </c>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="32"/>
+    <row r="18" spans="1:16" s="7" customFormat="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
@@ -2380,7 +2469,7 @@
       <c r="G18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="10" t="s">
         <v>28</v>
       </c>
@@ -2398,29 +2487,31 @@
       </c>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="33" t="s">
+    <row r="19" spans="1:16" s="4" customFormat="1">
+      <c r="A19" s="50" t="s">
         <v>46</v>
       </c>
+      <c r="B19" s="54" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="32">
+        <v>0.9294</v>
+      </c>
       <c r="I19" s="9" t="s">
         <v>19</v>
       </c>
@@ -2438,25 +2529,27 @@
       </c>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="34"/>
+    <row r="20" spans="1:16" s="5" customFormat="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="33">
+        <v>0.78620000000000001</v>
+      </c>
       <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2474,25 +2567,27 @@
       </c>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="34"/>
+    <row r="21" spans="1:16" s="5" customFormat="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="33">
+        <v>0.77080000000000004</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2510,9 +2605,9 @@
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="34"/>
+    <row r="22" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A22" s="51"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="22" t="s">
         <v>28</v>
       </c>
@@ -2528,7 +2623,9 @@
       <c r="G22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>28</v>
       </c>
@@ -2546,27 +2643,29 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="43" t="s">
-        <v>53</v>
+    <row r="23" spans="1:16" s="5" customFormat="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="56" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="33">
+        <v>0.93530000000000002</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2584,25 +2683,27 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="44"/>
+    <row r="24" spans="1:16" s="5" customFormat="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="33">
+        <v>0.78839999999999999</v>
+      </c>
       <c r="I24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2620,25 +2721,27 @@
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="44"/>
+    <row r="25" spans="1:16" s="5" customFormat="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="33">
+        <v>0.77259999999999995</v>
+      </c>
       <c r="I25" s="3" t="s">
         <v>25</v>
       </c>
@@ -2656,9 +2759,9 @@
       </c>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="45"/>
+    <row r="26" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A26" s="51"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="14" t="s">
         <v>28</v>
       </c>
@@ -2674,7 +2777,9 @@
       <c r="G26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="I26" s="14" t="s">
         <v>28</v>
       </c>
@@ -2692,27 +2797,29 @@
       </c>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39" t="s">
-        <v>60</v>
+    <row r="27" spans="1:16" s="5" customFormat="1">
+      <c r="A27" s="51"/>
+      <c r="B27" s="69" t="s">
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="37">
+        <v>0.93530000000000002</v>
+      </c>
       <c r="I27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2730,25 +2837,27 @@
       </c>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="39"/>
+    <row r="28" spans="1:16" s="5" customFormat="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="33">
+        <v>0.78839999999999999</v>
+      </c>
       <c r="I28" s="3" t="s">
         <v>22</v>
       </c>
@@ -2766,25 +2875,27 @@
       </c>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
+    <row r="29" spans="1:16" s="5" customFormat="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="33">
+        <v>0.77239999999999998</v>
+      </c>
       <c r="I29" s="3" t="s">
         <v>25</v>
       </c>
@@ -2802,9 +2913,9 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="40"/>
+    <row r="30" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A30" s="51"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -2820,7 +2931,9 @@
       <c r="G30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I30" s="14" t="s">
         <v>28</v>
       </c>
@@ -2838,10 +2951,10 @@
       </c>
       <c r="P30" s="14"/>
     </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="31" t="s">
-        <v>44</v>
+    <row r="31" spans="1:16" s="5" customFormat="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="77" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
@@ -2854,7 +2967,7 @@
       <c r="G31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="2" t="s">
         <v>19</v>
       </c>
@@ -2872,9 +2985,9 @@
       </c>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="31"/>
+    <row r="32" spans="1:16" s="5" customFormat="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
@@ -2886,7 +2999,7 @@
       <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="3" t="s">
         <v>22</v>
       </c>
@@ -2904,9 +3017,9 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="31"/>
+    <row r="33" spans="1:16" s="5" customFormat="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="3" t="s">
         <v>25</v>
       </c>
@@ -2918,7 +3031,7 @@
       <c r="G33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="3" t="s">
         <v>25</v>
       </c>
@@ -2936,9 +3049,9 @@
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="32"/>
+    <row r="34" spans="1:16" s="7" customFormat="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="10" t="s">
         <v>28</v>
       </c>
@@ -2950,7 +3063,7 @@
       <c r="G34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="10" t="s">
         <v>28</v>
       </c>
@@ -2968,29 +3081,31 @@
       </c>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="33" t="s">
+    <row r="35" spans="1:16" s="4" customFormat="1">
+      <c r="A35" s="50" t="s">
         <v>67</v>
       </c>
+      <c r="B35" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="C35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="32">
+        <v>0.90590000000000004</v>
+      </c>
       <c r="I35" s="9" t="s">
         <v>19</v>
       </c>
@@ -3008,25 +3123,27 @@
       </c>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="34"/>
+    <row r="36" spans="1:16" s="5" customFormat="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="33">
+        <v>0.79690000000000005</v>
+      </c>
       <c r="I36" s="3" t="s">
         <v>22</v>
       </c>
@@ -3044,25 +3161,27 @@
       </c>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="34"/>
+    <row r="37" spans="1:16" s="5" customFormat="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="33">
+        <v>0.77949999999999997</v>
+      </c>
       <c r="I37" s="3" t="s">
         <v>25</v>
       </c>
@@ -3080,14 +3199,14 @@
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="34"/>
+    <row r="38" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A38" s="51"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>28</v>
@@ -3098,7 +3217,9 @@
       <c r="G38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I38" s="6" t="s">
         <v>28</v>
       </c>
@@ -3116,27 +3237,29 @@
       </c>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="46" t="s">
-        <v>74</v>
+    <row r="39" spans="1:16" s="5" customFormat="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="61" t="s">
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="33">
+        <v>0.91469999999999996</v>
+      </c>
       <c r="I39" s="2" t="s">
         <v>19</v>
       </c>
@@ -3154,25 +3277,27 @@
       </c>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="47"/>
+    <row r="40" spans="1:16" s="5" customFormat="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="33">
+        <v>0.78280000000000005</v>
+      </c>
       <c r="I40" s="3" t="s">
         <v>22</v>
       </c>
@@ -3190,25 +3315,27 @@
       </c>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="47"/>
+    <row r="41" spans="1:16" s="5" customFormat="1">
+      <c r="A41" s="51"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="33">
+        <v>0.76680000000000004</v>
+      </c>
       <c r="I41" s="3" t="s">
         <v>25</v>
       </c>
@@ -3226,9 +3353,9 @@
       </c>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="48"/>
+    <row r="42" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A42" s="51"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="14" t="s">
         <v>28</v>
       </c>
@@ -3244,7 +3371,9 @@
       <c r="G42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I42" s="14" t="s">
         <v>28</v>
       </c>
@@ -3262,27 +3391,29 @@
       </c>
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39" t="s">
-        <v>80</v>
+    <row r="43" spans="1:16" s="5" customFormat="1">
+      <c r="A43" s="51"/>
+      <c r="B43" s="69" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="37">
+        <v>0.93240000000000001</v>
+      </c>
       <c r="I43" s="2" t="s">
         <v>19</v>
       </c>
@@ -3300,25 +3431,27 @@
       </c>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="39"/>
+    <row r="44" spans="1:16" s="5" customFormat="1">
+      <c r="A44" s="51"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="33">
+        <v>0.7883</v>
+      </c>
       <c r="I44" s="3" t="s">
         <v>22</v>
       </c>
@@ -3336,25 +3469,27 @@
       </c>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="39"/>
+    <row r="45" spans="1:16" s="5" customFormat="1">
+      <c r="A45" s="51"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="33">
+        <v>0.76949999999999996</v>
+      </c>
       <c r="I45" s="3" t="s">
         <v>25</v>
       </c>
@@ -3372,14 +3507,14 @@
       </c>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="40"/>
+    <row r="46" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A46" s="51"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>28</v>
@@ -3390,7 +3525,9 @@
       <c r="G46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I46" s="14" t="s">
         <v>28</v>
       </c>
@@ -3408,10 +3545,10 @@
       </c>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="31" t="s">
-        <v>44</v>
+    <row r="47" spans="1:16" s="5" customFormat="1">
+      <c r="A47" s="51"/>
+      <c r="B47" s="77" t="s">
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
@@ -3424,7 +3561,7 @@
       <c r="G47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="2" t="s">
         <v>19</v>
       </c>
@@ -3442,9 +3579,9 @@
       </c>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="31"/>
+    <row r="48" spans="1:16" s="5" customFormat="1">
+      <c r="A48" s="51"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
@@ -3456,7 +3593,7 @@
       <c r="G48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="3" t="s">
         <v>22</v>
       </c>
@@ -3474,9 +3611,9 @@
       </c>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="31"/>
+    <row r="49" spans="1:16" s="5" customFormat="1">
+      <c r="A49" s="51"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="3" t="s">
         <v>25</v>
       </c>
@@ -3488,7 +3625,7 @@
       <c r="G49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="3" t="s">
         <v>25</v>
       </c>
@@ -3506,9 +3643,9 @@
       </c>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="32"/>
+    <row r="50" spans="1:16" s="7" customFormat="1">
+      <c r="A50" s="52"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="10" t="s">
         <v>28</v>
       </c>
@@ -3520,7 +3657,7 @@
       <c r="G50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="10" t="s">
         <v>28</v>
       </c>
@@ -3538,29 +3675,31 @@
       </c>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="33" t="s">
+    <row r="51" spans="1:16" s="4" customFormat="1">
+      <c r="A51" s="50" t="s">
         <v>88</v>
       </c>
+      <c r="B51" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="C51" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="32">
+        <v>0.89710000000000001</v>
+      </c>
       <c r="I51" s="9" t="s">
         <v>19</v>
       </c>
@@ -3578,25 +3717,27 @@
       </c>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="34"/>
+    <row r="52" spans="1:16" s="5" customFormat="1">
+      <c r="A52" s="51"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="33">
+        <v>0.80049999999999999</v>
+      </c>
       <c r="I52" s="3" t="s">
         <v>22</v>
       </c>
@@ -3614,25 +3755,27 @@
       </c>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="34"/>
+    <row r="53" spans="1:16" s="5" customFormat="1">
+      <c r="A53" s="51"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="33">
+        <v>0.78459999999999996</v>
+      </c>
       <c r="I53" s="3" t="s">
         <v>25</v>
       </c>
@@ -3650,14 +3793,14 @@
       </c>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="34"/>
+    <row r="54" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A54" s="51"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>28</v>
@@ -3668,7 +3811,9 @@
       <c r="G54" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I54" s="6" t="s">
         <v>28</v>
       </c>
@@ -3686,27 +3831,29 @@
       </c>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="52" t="s">
-        <v>95</v>
+    <row r="55" spans="1:16" s="5" customFormat="1">
+      <c r="A55" s="51"/>
+      <c r="B55" s="74" t="s">
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="33">
+        <v>0.92649999999999999</v>
+      </c>
       <c r="I55" s="2" t="s">
         <v>19</v>
       </c>
@@ -3724,25 +3871,27 @@
       </c>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="53"/>
+    <row r="56" spans="1:16" s="5" customFormat="1">
+      <c r="A56" s="51"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="33">
+        <v>0.81330000000000002</v>
+      </c>
       <c r="I56" s="3" t="s">
         <v>22</v>
       </c>
@@ -3760,25 +3909,27 @@
       </c>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="53"/>
+    <row r="57" spans="1:16" s="5" customFormat="1">
+      <c r="A57" s="51"/>
+      <c r="B57" s="75"/>
       <c r="C57" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="33">
+        <v>0.80149999999999999</v>
+      </c>
       <c r="I57" s="3" t="s">
         <v>25</v>
       </c>
@@ -3796,9 +3947,9 @@
       </c>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="54"/>
+    <row r="58" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A58" s="51"/>
+      <c r="B58" s="76"/>
       <c r="C58" s="14" t="s">
         <v>28</v>
       </c>
@@ -3814,7 +3965,9 @@
       <c r="G58" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="14"/>
+      <c r="H58" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I58" s="14" t="s">
         <v>28</v>
       </c>
@@ -3832,27 +3985,29 @@
       </c>
       <c r="P58" s="14"/>
     </row>
-    <row r="59" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="52" t="s">
-        <v>98</v>
+    <row r="59" spans="1:16" s="5" customFormat="1">
+      <c r="A59" s="51"/>
+      <c r="B59" s="74" t="s">
+        <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="13"/>
+      <c r="H59" s="37">
+        <v>0.93530000000000002</v>
+      </c>
       <c r="I59" s="2" t="s">
         <v>19</v>
       </c>
@@ -3870,25 +4025,27 @@
       </c>
       <c r="P59" s="13"/>
     </row>
-    <row r="60" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="53"/>
+    <row r="60" spans="1:16" s="5" customFormat="1">
+      <c r="A60" s="51"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="33">
+        <v>0.81720000000000004</v>
+      </c>
       <c r="I60" s="3" t="s">
         <v>22</v>
       </c>
@@ -3906,25 +4063,27 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="53"/>
+    <row r="61" spans="1:16" s="5" customFormat="1">
+      <c r="A61" s="51"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="33">
+        <v>0.80369999999999997</v>
+      </c>
       <c r="I61" s="3" t="s">
         <v>25</v>
       </c>
@@ -3942,14 +4101,14 @@
       </c>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="54"/>
+    <row r="62" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A62" s="51"/>
+      <c r="B62" s="76"/>
       <c r="C62" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>28</v>
@@ -3960,7 +4119,9 @@
       <c r="G62" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H62" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I62" s="14" t="s">
         <v>28</v>
       </c>
@@ -3978,10 +4139,10 @@
       </c>
       <c r="P62" s="14"/>
     </row>
-    <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="31" t="s">
-        <v>44</v>
+    <row r="63" spans="1:16" s="5" customFormat="1">
+      <c r="A63" s="51"/>
+      <c r="B63" s="77" t="s">
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
@@ -3994,7 +4155,7 @@
       <c r="G63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="2" t="s">
         <v>19</v>
       </c>
@@ -4012,9 +4173,9 @@
       </c>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="31"/>
+    <row r="64" spans="1:16" s="5" customFormat="1">
+      <c r="A64" s="51"/>
+      <c r="B64" s="77"/>
       <c r="C64" s="3" t="s">
         <v>22</v>
       </c>
@@ -4026,7 +4187,7 @@
       <c r="G64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="3" t="s">
         <v>22</v>
       </c>
@@ -4044,9 +4205,9 @@
       </c>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="31"/>
+    <row r="65" spans="1:16" s="5" customFormat="1">
+      <c r="A65" s="51"/>
+      <c r="B65" s="77"/>
       <c r="C65" s="3" t="s">
         <v>25</v>
       </c>
@@ -4058,7 +4219,7 @@
       <c r="G65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="3" t="s">
         <v>25</v>
       </c>
@@ -4076,9 +4237,9 @@
       </c>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="32"/>
+    <row r="66" spans="1:16" s="7" customFormat="1">
+      <c r="A66" s="52"/>
+      <c r="B66" s="78"/>
       <c r="C66" s="10" t="s">
         <v>28</v>
       </c>
@@ -4090,7 +4251,7 @@
       <c r="G66" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H66" s="10"/>
+      <c r="H66" s="35"/>
       <c r="I66" s="10" t="s">
         <v>28</v>
       </c>
@@ -4108,29 +4269,31 @@
       </c>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="33" t="s">
+    <row r="67" spans="1:16" s="4" customFormat="1">
+      <c r="A67" s="50" t="s">
         <v>105</v>
       </c>
+      <c r="B67" s="54" t="s">
+        <v>106</v>
+      </c>
       <c r="C67" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="32">
+        <v>0.90880000000000005</v>
+      </c>
       <c r="I67" s="9" t="s">
         <v>19</v>
       </c>
@@ -4148,25 +4311,27 @@
       </c>
       <c r="P67" s="9"/>
     </row>
-    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="34"/>
+    <row r="68" spans="1:16" s="5" customFormat="1">
+      <c r="A68" s="51"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="33">
+        <v>0.88849999999999996</v>
+      </c>
       <c r="I68" s="3" t="s">
         <v>22</v>
       </c>
@@ -4184,25 +4349,27 @@
       </c>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="34"/>
+    <row r="69" spans="1:16" s="5" customFormat="1">
+      <c r="A69" s="51"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="33">
+        <v>0.87319999999999998</v>
+      </c>
       <c r="I69" s="3" t="s">
         <v>25</v>
       </c>
@@ -4220,9 +4387,9 @@
       </c>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="34"/>
+    <row r="70" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A70" s="51"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="6" t="s">
         <v>28</v>
       </c>
@@ -4238,7 +4405,9 @@
       <c r="G70" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="6"/>
+      <c r="H70" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I70" s="6" t="s">
         <v>28</v>
       </c>
@@ -4256,27 +4425,29 @@
       </c>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="52" t="s">
-        <v>112</v>
+    <row r="71" spans="1:16" s="5" customFormat="1">
+      <c r="A71" s="51"/>
+      <c r="B71" s="74" t="s">
+        <v>113</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="33">
+        <v>0.92649999999999999</v>
+      </c>
       <c r="I71" s="2" t="s">
         <v>19</v>
       </c>
@@ -4294,25 +4465,27 @@
       </c>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="53"/>
+    <row r="72" spans="1:16" s="5" customFormat="1">
+      <c r="A72" s="51"/>
+      <c r="B72" s="75"/>
       <c r="C72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="H72" s="33">
+        <v>0.85599999999999998</v>
+      </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
       </c>
@@ -4330,25 +4503,27 @@
       </c>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="53"/>
+    <row r="73" spans="1:16" s="5" customFormat="1">
+      <c r="A73" s="51"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="H73" s="33">
+        <v>0.84240000000000004</v>
+      </c>
       <c r="I73" s="3" t="s">
         <v>25</v>
       </c>
@@ -4366,14 +4541,14 @@
       </c>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="54"/>
+    <row r="74" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A74" s="51"/>
+      <c r="B74" s="76"/>
       <c r="C74" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>28</v>
@@ -4384,7 +4559,9 @@
       <c r="G74" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I74" s="14" t="s">
         <v>28</v>
       </c>
@@ -4402,27 +4579,29 @@
       </c>
       <c r="P74" s="14"/>
     </row>
-    <row r="75" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="43" t="s">
-        <v>117</v>
+    <row r="75" spans="1:16" s="5" customFormat="1">
+      <c r="A75" s="51"/>
+      <c r="B75" s="56" t="s">
+        <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="13"/>
+      <c r="H75" s="83">
+        <v>0.93530000000000002</v>
+      </c>
       <c r="I75" s="2" t="s">
         <v>19</v>
       </c>
@@ -4440,25 +4619,27 @@
       </c>
       <c r="P75" s="13"/>
     </row>
-    <row r="76" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="44"/>
+    <row r="76" spans="1:16" s="5" customFormat="1">
+      <c r="A76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="84">
+        <v>0.83889999999999998</v>
+      </c>
       <c r="I76" s="3" t="s">
         <v>22</v>
       </c>
@@ -4476,25 +4657,27 @@
       </c>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="44"/>
+    <row r="77" spans="1:16" s="5" customFormat="1">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="84">
+        <v>0.82979999999999998</v>
+      </c>
       <c r="I77" s="3" t="s">
         <v>25</v>
       </c>
@@ -4512,9 +4695,9 @@
       </c>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="45"/>
+    <row r="78" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A78" s="51"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="14" t="s">
         <v>28</v>
       </c>
@@ -4530,7 +4713,9 @@
       <c r="G78" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H78" s="14"/>
+      <c r="H78" s="85" t="s">
+        <v>31</v>
+      </c>
       <c r="I78" s="14" t="s">
         <v>28</v>
       </c>
@@ -4548,10 +4733,10 @@
       </c>
       <c r="P78" s="14"/>
     </row>
-    <row r="79" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="49" t="s">
-        <v>44</v>
+    <row r="79" spans="1:16" s="5" customFormat="1">
+      <c r="A79" s="51"/>
+      <c r="B79" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
@@ -4564,7 +4749,7 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="2" t="s">
         <v>19</v>
       </c>
@@ -4582,9 +4767,9 @@
       </c>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="50"/>
+    <row r="80" spans="1:16" s="5" customFormat="1">
+      <c r="A80" s="51"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="3" t="s">
         <v>22</v>
       </c>
@@ -4596,7 +4781,7 @@
       <c r="G80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="3" t="s">
         <v>22</v>
       </c>
@@ -4614,9 +4799,9 @@
       </c>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="50"/>
+    <row r="81" spans="1:16" s="5" customFormat="1">
+      <c r="A81" s="51"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="3" t="s">
         <v>25</v>
       </c>
@@ -4628,7 +4813,7 @@
       <c r="G81" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="3" t="s">
         <v>25</v>
       </c>
@@ -4646,9 +4831,9 @@
       </c>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
-      <c r="B82" s="51"/>
+    <row r="82" spans="1:16" s="7" customFormat="1">
+      <c r="A82" s="52"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="10" t="s">
         <v>28</v>
       </c>
@@ -4660,7 +4845,7 @@
       <c r="G82" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="H82" s="35"/>
       <c r="I82" s="10" t="s">
         <v>28</v>
       </c>
@@ -4678,29 +4863,31 @@
       </c>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="55" t="s">
+    <row r="83" spans="1:16" s="4" customFormat="1">
+      <c r="A83" s="50" t="s">
         <v>123</v>
       </c>
+      <c r="B83" s="79" t="s">
+        <v>124</v>
+      </c>
       <c r="C83" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="32">
+        <v>0.92059999999999997</v>
+      </c>
       <c r="I83" s="9" t="s">
         <v>19</v>
       </c>
@@ -4718,25 +4905,27 @@
       </c>
       <c r="P83" s="9"/>
     </row>
-    <row r="84" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="44"/>
+    <row r="84" spans="1:16" s="5" customFormat="1">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="33">
+        <v>0.84840000000000004</v>
+      </c>
       <c r="I84" s="3" t="s">
         <v>22</v>
       </c>
@@ -4754,25 +4943,27 @@
       </c>
       <c r="P84" s="3"/>
     </row>
-    <row r="85" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="44"/>
+    <row r="85" spans="1:16" s="5" customFormat="1">
+      <c r="A85" s="51"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="33">
+        <v>0.81759999999999999</v>
+      </c>
       <c r="I85" s="3" t="s">
         <v>25</v>
       </c>
@@ -4790,9 +4981,9 @@
       </c>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="45"/>
+    <row r="86" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A86" s="51"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="6" t="s">
         <v>28</v>
       </c>
@@ -4808,7 +4999,9 @@
       <c r="G86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H86" s="6"/>
+      <c r="H86" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I86" s="6" t="s">
         <v>28</v>
       </c>
@@ -4826,27 +5019,29 @@
       </c>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="44" t="s">
-        <v>130</v>
+    <row r="87" spans="1:16" s="5" customFormat="1">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="33">
+        <v>0.92349999999999999</v>
+      </c>
       <c r="I87" s="2" t="s">
         <v>19</v>
       </c>
@@ -4864,25 +5059,27 @@
       </c>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="44"/>
+    <row r="88" spans="1:16" s="5" customFormat="1">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="33">
+        <v>0.90049999999999997</v>
+      </c>
       <c r="I88" s="3" t="s">
         <v>22</v>
       </c>
@@ -4900,25 +5097,27 @@
       </c>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="44"/>
+    <row r="89" spans="1:16" s="5" customFormat="1">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="33">
+        <v>0.88329999999999997</v>
+      </c>
       <c r="I89" s="3" t="s">
         <v>25</v>
       </c>
@@ -4936,9 +5135,9 @@
       </c>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="45"/>
+    <row r="90" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A90" s="51"/>
+      <c r="B90" s="73"/>
       <c r="C90" s="14" t="s">
         <v>28</v>
       </c>
@@ -4954,7 +5153,9 @@
       <c r="G90" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H90" s="14"/>
+      <c r="H90" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I90" s="14" t="s">
         <v>28</v>
       </c>
@@ -4972,27 +5173,29 @@
       </c>
       <c r="P90" s="14"/>
     </row>
-    <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="34" t="s">
-        <v>136</v>
+    <row r="91" spans="1:16" s="5" customFormat="1">
+      <c r="A91" s="51"/>
+      <c r="B91" s="55" t="s">
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="13"/>
+      <c r="H91" s="86">
+        <v>0.93530000000000002</v>
+      </c>
       <c r="I91" s="2" t="s">
         <v>19</v>
       </c>
@@ -5010,25 +5213,27 @@
       </c>
       <c r="P91" s="13"/>
     </row>
-    <row r="92" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="34"/>
+    <row r="92" spans="1:16" s="5" customFormat="1">
+      <c r="A92" s="51"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="87">
+        <v>0.82430000000000003</v>
+      </c>
       <c r="I92" s="3" t="s">
         <v>22</v>
       </c>
@@ -5046,25 +5251,27 @@
       </c>
       <c r="P92" s="3"/>
     </row>
-    <row r="93" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="34"/>
+    <row r="93" spans="1:16" s="5" customFormat="1">
+      <c r="A93" s="51"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="87">
+        <v>0.81240000000000001</v>
+      </c>
       <c r="I93" s="3" t="s">
         <v>25</v>
       </c>
@@ -5082,14 +5289,14 @@
       </c>
       <c r="P93" s="3"/>
     </row>
-    <row r="94" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="34"/>
+    <row r="94" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A94" s="51"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>28</v>
@@ -5100,7 +5307,9 @@
       <c r="G94" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H94" s="14"/>
+      <c r="H94" s="88" t="s">
+        <v>31</v>
+      </c>
       <c r="I94" s="14" t="s">
         <v>28</v>
       </c>
@@ -5118,10 +5327,10 @@
       </c>
       <c r="P94" s="14"/>
     </row>
-    <row r="95" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="49" t="s">
-        <v>44</v>
+    <row r="95" spans="1:16" s="5" customFormat="1">
+      <c r="A95" s="51"/>
+      <c r="B95" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
@@ -5134,7 +5343,7 @@
       <c r="G95" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="2" t="s">
         <v>19</v>
       </c>
@@ -5152,9 +5361,9 @@
       </c>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="50"/>
+    <row r="96" spans="1:16" s="5" customFormat="1">
+      <c r="A96" s="51"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="3" t="s">
         <v>22</v>
       </c>
@@ -5166,7 +5375,7 @@
       <c r="G96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="3" t="s">
         <v>22</v>
       </c>
@@ -5184,9 +5393,9 @@
       </c>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="50"/>
+    <row r="97" spans="1:16" s="5" customFormat="1">
+      <c r="A97" s="51"/>
+      <c r="B97" s="66"/>
       <c r="C97" s="3" t="s">
         <v>25</v>
       </c>
@@ -5198,7 +5407,7 @@
       <c r="G97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="3" t="s">
         <v>25</v>
       </c>
@@ -5216,9 +5425,9 @@
       </c>
       <c r="P97" s="3"/>
     </row>
-    <row r="98" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="51"/>
+    <row r="98" spans="1:16" s="7" customFormat="1">
+      <c r="A98" s="52"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="10" t="s">
         <v>28</v>
       </c>
@@ -5230,7 +5439,7 @@
       <c r="G98" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H98" s="10"/>
+      <c r="H98" s="35"/>
       <c r="I98" s="10" t="s">
         <v>28</v>
       </c>
@@ -5248,12 +5457,12 @@
       </c>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="33" t="s">
+    <row r="99" spans="1:16" s="4" customFormat="1">
+      <c r="A99" s="50" t="s">
         <v>141</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>19</v>
@@ -5263,12 +5472,14 @@
         <v>19</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="32">
+        <v>0.87350000000000005</v>
+      </c>
       <c r="I99" s="9" t="s">
         <v>19</v>
       </c>
@@ -5286,9 +5497,9 @@
       </c>
       <c r="P99" s="9"/>
     </row>
-    <row r="100" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="34"/>
+    <row r="100" spans="1:16" s="5" customFormat="1">
+      <c r="A100" s="51"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="3" t="s">
         <v>22</v>
       </c>
@@ -5297,12 +5508,14 @@
         <v>22</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H100" s="3"/>
+      <c r="H100" s="33">
+        <v>0.82079999999999997</v>
+      </c>
       <c r="I100" s="3" t="s">
         <v>22</v>
       </c>
@@ -5320,9 +5533,9 @@
       </c>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="34"/>
+    <row r="101" spans="1:16" s="5" customFormat="1">
+      <c r="A101" s="51"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="3" t="s">
         <v>25</v>
       </c>
@@ -5331,12 +5544,14 @@
         <v>25</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H101" s="3"/>
+      <c r="H101" s="33">
+        <v>0.78110000000000002</v>
+      </c>
       <c r="I101" s="3" t="s">
         <v>25</v>
       </c>
@@ -5354,9 +5569,9 @@
       </c>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="34"/>
+    <row r="102" spans="1:16" s="5" customFormat="1" ht="30">
+      <c r="A102" s="51"/>
+      <c r="B102" s="55"/>
       <c r="C102" s="6" t="s">
         <v>28</v>
       </c>
@@ -5370,7 +5585,7 @@
       <c r="G102" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H102" s="6"/>
+      <c r="H102" s="34"/>
       <c r="I102" s="6" t="s">
         <v>28</v>
       </c>
@@ -5388,10 +5603,10 @@
       </c>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="43" t="s">
-        <v>145</v>
+    <row r="103" spans="1:16" s="5" customFormat="1">
+      <c r="A103" s="51"/>
+      <c r="B103" s="56" t="s">
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
@@ -5401,12 +5616,14 @@
         <v>19</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" s="33">
+        <v>0.84409999999999996</v>
+      </c>
       <c r="I103" s="2" t="s">
         <v>19</v>
       </c>
@@ -5424,9 +5641,9 @@
       </c>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="44"/>
+    <row r="104" spans="1:16" s="5" customFormat="1">
+      <c r="A104" s="51"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="3" t="s">
         <v>22</v>
       </c>
@@ -5435,12 +5652,14 @@
         <v>22</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H104" s="3"/>
+      <c r="H104" s="33">
+        <v>0.68279999999999996</v>
+      </c>
       <c r="I104" s="3" t="s">
         <v>22</v>
       </c>
@@ -5458,9 +5677,9 @@
       </c>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="44"/>
+    <row r="105" spans="1:16" s="5" customFormat="1">
+      <c r="A105" s="51"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="3" t="s">
         <v>25</v>
       </c>
@@ -5469,12 +5688,14 @@
         <v>25</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H105" s="3"/>
+      <c r="H105" s="33">
+        <v>0.6694</v>
+      </c>
       <c r="I105" s="3" t="s">
         <v>25</v>
       </c>
@@ -5492,9 +5713,9 @@
       </c>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="44"/>
+    <row r="106" spans="1:16" s="5" customFormat="1" ht="30">
+      <c r="A106" s="51"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="14" t="s">
         <v>28</v>
       </c>
@@ -5508,7 +5729,9 @@
       <c r="G106" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H106" s="14"/>
+      <c r="H106" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I106" s="14" t="s">
         <v>28</v>
       </c>
@@ -5526,10 +5749,10 @@
       </c>
       <c r="P106" s="14"/>
     </row>
-    <row r="107" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="43" t="s">
-        <v>149</v>
+    <row r="107" spans="1:16" s="5" customFormat="1">
+      <c r="A107" s="51"/>
+      <c r="B107" s="56" t="s">
+        <v>150</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
@@ -5539,12 +5762,14 @@
         <v>19</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H107" s="13"/>
+      <c r="H107" s="37">
+        <v>0.89710000000000001</v>
+      </c>
       <c r="I107" s="2" t="s">
         <v>19</v>
       </c>
@@ -5562,9 +5787,9 @@
       </c>
       <c r="P107" s="13"/>
     </row>
-    <row r="108" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="44"/>
+    <row r="108" spans="1:16" s="5" customFormat="1">
+      <c r="A108" s="51"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="3" t="s">
         <v>22</v>
       </c>
@@ -5573,12 +5798,14 @@
         <v>22</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="H108" s="33">
+        <v>0.82920000000000005</v>
+      </c>
       <c r="I108" s="3" t="s">
         <v>22</v>
       </c>
@@ -5596,9 +5823,9 @@
       </c>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="44"/>
+    <row r="109" spans="1:16" s="5" customFormat="1">
+      <c r="A109" s="51"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="3" t="s">
         <v>25</v>
       </c>
@@ -5607,12 +5834,14 @@
         <v>25</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H109" s="3"/>
+      <c r="H109" s="33">
+        <v>0.81359999999999999</v>
+      </c>
       <c r="I109" s="3" t="s">
         <v>25</v>
       </c>
@@ -5630,9 +5859,9 @@
       </c>
       <c r="P109" s="3"/>
     </row>
-    <row r="110" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="44"/>
+    <row r="110" spans="1:16" s="5" customFormat="1" ht="30">
+      <c r="A110" s="51"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="14" t="s">
         <v>28</v>
       </c>
@@ -5646,7 +5875,9 @@
       <c r="G110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H110" s="14"/>
+      <c r="H110" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I110" s="14" t="s">
         <v>28</v>
       </c>
@@ -5664,10 +5895,10 @@
       </c>
       <c r="P110" s="14"/>
     </row>
-    <row r="111" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="49" t="s">
-        <v>44</v>
+    <row r="111" spans="1:16" s="5" customFormat="1">
+      <c r="A111" s="51"/>
+      <c r="B111" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
@@ -5680,7 +5911,7 @@
       <c r="G111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H111" s="2"/>
+      <c r="H111" s="33"/>
       <c r="I111" s="2" t="s">
         <v>19</v>
       </c>
@@ -5698,9 +5929,9 @@
       </c>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="50"/>
+    <row r="112" spans="1:16" s="5" customFormat="1">
+      <c r="A112" s="51"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="3" t="s">
         <v>22</v>
       </c>
@@ -5712,7 +5943,7 @@
       <c r="G112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H112" s="3"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="3" t="s">
         <v>22</v>
       </c>
@@ -5730,9 +5961,9 @@
       </c>
       <c r="P112" s="3"/>
     </row>
-    <row r="113" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="50"/>
+    <row r="113" spans="1:16" s="5" customFormat="1">
+      <c r="A113" s="51"/>
+      <c r="B113" s="66"/>
       <c r="C113" s="3" t="s">
         <v>25</v>
       </c>
@@ -5744,7 +5975,7 @@
       <c r="G113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H113" s="3"/>
+      <c r="H113" s="33"/>
       <c r="I113" s="3" t="s">
         <v>25</v>
       </c>
@@ -5762,9 +5993,9 @@
       </c>
       <c r="P113" s="3"/>
     </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="37"/>
-      <c r="B114" s="51"/>
+    <row r="114" spans="1:16" s="7" customFormat="1">
+      <c r="A114" s="52"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="10" t="s">
         <v>28</v>
       </c>
@@ -5776,7 +6007,7 @@
       <c r="G114" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H114" s="10"/>
+      <c r="H114" s="35"/>
       <c r="I114" s="10" t="s">
         <v>28</v>
       </c>
@@ -5794,12 +6025,12 @@
       </c>
       <c r="P114" s="10"/>
     </row>
-    <row r="115" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="B115" s="61" t="s">
+    <row r="115" spans="1:16" s="4" customFormat="1">
+      <c r="A115" s="47" t="s">
         <v>154</v>
+      </c>
+      <c r="B115" s="68" t="s">
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
@@ -5812,7 +6043,7 @@
       <c r="G115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="11"/>
+      <c r="H115" s="32"/>
       <c r="I115" s="2" t="s">
         <v>19</v>
       </c>
@@ -5830,9 +6061,9 @@
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="39"/>
+    <row r="116" spans="1:16" s="5" customFormat="1">
+      <c r="A116" s="48"/>
+      <c r="B116" s="69"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -5844,7 +6075,7 @@
       <c r="G116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H116" s="3"/>
+      <c r="H116" s="33"/>
       <c r="I116" s="3" t="s">
         <v>22</v>
       </c>
@@ -5862,9 +6093,9 @@
       </c>
       <c r="P116" s="3"/>
     </row>
-    <row r="117" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="64"/>
-      <c r="B117" s="39"/>
+    <row r="117" spans="1:16" s="5" customFormat="1">
+      <c r="A117" s="48"/>
+      <c r="B117" s="69"/>
       <c r="C117" s="3" t="s">
         <v>25</v>
       </c>
@@ -5876,7 +6107,7 @@
       <c r="G117" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H117" s="3"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="3" t="s">
         <v>25</v>
       </c>
@@ -5894,9 +6125,9 @@
       </c>
       <c r="P117" s="3"/>
     </row>
-    <row r="118" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="64"/>
-      <c r="B118" s="39"/>
+    <row r="118" spans="1:16" s="5" customFormat="1">
+      <c r="A118" s="48"/>
+      <c r="B118" s="69"/>
       <c r="C118" s="14" t="s">
         <v>28</v>
       </c>
@@ -5908,7 +6139,7 @@
       <c r="G118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="3"/>
+      <c r="H118" s="33"/>
       <c r="I118" s="14" t="s">
         <v>28</v>
       </c>
@@ -5926,10 +6157,10 @@
       </c>
       <c r="P118" s="3"/>
     </row>
-    <row r="119" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="64"/>
-      <c r="B119" s="41" t="s">
-        <v>155</v>
+    <row r="119" spans="1:16" s="5" customFormat="1">
+      <c r="A119" s="48"/>
+      <c r="B119" s="70" t="s">
+        <v>156</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
@@ -5942,7 +6173,7 @@
       <c r="G119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H119" s="16"/>
+      <c r="H119" s="39"/>
       <c r="I119" s="2" t="s">
         <v>19</v>
       </c>
@@ -5960,9 +6191,9 @@
       </c>
       <c r="P119" s="16"/>
     </row>
-    <row r="120" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
-      <c r="B120" s="34"/>
+    <row r="120" spans="1:16" s="5" customFormat="1">
+      <c r="A120" s="48"/>
+      <c r="B120" s="55"/>
       <c r="C120" s="3" t="s">
         <v>22</v>
       </c>
@@ -5974,7 +6205,7 @@
       <c r="G120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="12"/>
+      <c r="H120" s="40"/>
       <c r="I120" s="3" t="s">
         <v>22</v>
       </c>
@@ -5992,9 +6223,9 @@
       </c>
       <c r="P120" s="12"/>
     </row>
-    <row r="121" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
-      <c r="B121" s="34"/>
+    <row r="121" spans="1:16" s="5" customFormat="1">
+      <c r="A121" s="48"/>
+      <c r="B121" s="55"/>
       <c r="C121" s="3" t="s">
         <v>25</v>
       </c>
@@ -6006,7 +6237,7 @@
       <c r="G121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="H121" s="40"/>
       <c r="I121" s="3" t="s">
         <v>25</v>
       </c>
@@ -6024,9 +6255,9 @@
       </c>
       <c r="P121" s="12"/>
     </row>
-    <row r="122" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
-      <c r="B122" s="34"/>
+    <row r="122" spans="1:16" s="5" customFormat="1">
+      <c r="A122" s="48"/>
+      <c r="B122" s="55"/>
       <c r="C122" s="14" t="s">
         <v>28</v>
       </c>
@@ -6038,7 +6269,7 @@
       <c r="G122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="17"/>
+      <c r="H122" s="41"/>
       <c r="I122" s="14" t="s">
         <v>28</v>
       </c>
@@ -6056,10 +6287,10 @@
       </c>
       <c r="P122" s="17"/>
     </row>
-    <row r="123" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="64"/>
-      <c r="B123" s="62" t="s">
-        <v>156</v>
+    <row r="123" spans="1:16" s="5" customFormat="1">
+      <c r="A123" s="48"/>
+      <c r="B123" s="71" t="s">
+        <v>157</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
@@ -6072,7 +6303,7 @@
       <c r="G123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H123" s="16"/>
+      <c r="H123" s="39"/>
       <c r="I123" s="2" t="s">
         <v>19</v>
       </c>
@@ -6090,9 +6321,9 @@
       </c>
       <c r="P123" s="16"/>
     </row>
-    <row r="124" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
-      <c r="B124" s="39"/>
+    <row r="124" spans="1:16" s="5" customFormat="1">
+      <c r="A124" s="48"/>
+      <c r="B124" s="69"/>
       <c r="C124" s="3" t="s">
         <v>22</v>
       </c>
@@ -6104,7 +6335,7 @@
       <c r="G124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H124" s="12"/>
+      <c r="H124" s="40"/>
       <c r="I124" s="3" t="s">
         <v>22</v>
       </c>
@@ -6122,9 +6353,9 @@
       </c>
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
-      <c r="B125" s="39"/>
+    <row r="125" spans="1:16" s="5" customFormat="1">
+      <c r="A125" s="48"/>
+      <c r="B125" s="69"/>
       <c r="C125" s="3" t="s">
         <v>25</v>
       </c>
@@ -6136,7 +6367,7 @@
       <c r="G125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H125" s="12"/>
+      <c r="H125" s="40"/>
       <c r="I125" s="3" t="s">
         <v>25</v>
       </c>
@@ -6154,9 +6385,9 @@
       </c>
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="64"/>
-      <c r="B126" s="40"/>
+    <row r="126" spans="1:16" s="5" customFormat="1">
+      <c r="A126" s="48"/>
+      <c r="B126" s="72"/>
       <c r="C126" s="14" t="s">
         <v>28</v>
       </c>
@@ -6168,7 +6399,7 @@
       <c r="G126" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H126" s="17"/>
+      <c r="H126" s="41"/>
       <c r="I126" s="14" t="s">
         <v>28</v>
       </c>
@@ -6186,10 +6417,10 @@
       </c>
       <c r="P126" s="17"/>
     </row>
-    <row r="127" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
-      <c r="B127" s="34" t="s">
-        <v>157</v>
+    <row r="127" spans="1:16" s="5" customFormat="1">
+      <c r="A127" s="48"/>
+      <c r="B127" s="55" t="s">
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
@@ -6202,7 +6433,7 @@
       <c r="G127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="16"/>
+      <c r="H127" s="39"/>
       <c r="I127" s="2" t="s">
         <v>19</v>
       </c>
@@ -6220,9 +6451,9 @@
       </c>
       <c r="P127" s="16"/>
     </row>
-    <row r="128" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="64"/>
-      <c r="B128" s="34"/>
+    <row r="128" spans="1:16" s="5" customFormat="1">
+      <c r="A128" s="48"/>
+      <c r="B128" s="55"/>
       <c r="C128" s="3" t="s">
         <v>22</v>
       </c>
@@ -6234,7 +6465,7 @@
       <c r="G128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H128" s="12"/>
+      <c r="H128" s="40"/>
       <c r="I128" s="3" t="s">
         <v>22</v>
       </c>
@@ -6252,9 +6483,9 @@
       </c>
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="64"/>
-      <c r="B129" s="34"/>
+    <row r="129" spans="1:16" s="5" customFormat="1">
+      <c r="A129" s="48"/>
+      <c r="B129" s="55"/>
       <c r="C129" s="3" t="s">
         <v>25</v>
       </c>
@@ -6266,7 +6497,7 @@
       <c r="G129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H129" s="12"/>
+      <c r="H129" s="40"/>
       <c r="I129" s="3" t="s">
         <v>25</v>
       </c>
@@ -6284,9 +6515,9 @@
       </c>
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="64"/>
-      <c r="B130" s="34"/>
+    <row r="130" spans="1:16" s="5" customFormat="1">
+      <c r="A130" s="48"/>
+      <c r="B130" s="55"/>
       <c r="C130" s="14" t="s">
         <v>28</v>
       </c>
@@ -6298,7 +6529,7 @@
       <c r="G130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H130" s="17"/>
+      <c r="H130" s="41"/>
       <c r="I130" s="14" t="s">
         <v>28</v>
       </c>
@@ -6316,10 +6547,10 @@
       </c>
       <c r="P130" s="17"/>
     </row>
-    <row r="131" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="64"/>
-      <c r="B131" s="62" t="s">
-        <v>158</v>
+    <row r="131" spans="1:16" s="5" customFormat="1">
+      <c r="A131" s="48"/>
+      <c r="B131" s="71" t="s">
+        <v>159</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -6332,7 +6563,7 @@
       <c r="G131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H131" s="16"/>
+      <c r="H131" s="39"/>
       <c r="I131" s="2" t="s">
         <v>19</v>
       </c>
@@ -6350,9 +6581,9 @@
       </c>
       <c r="P131" s="16"/>
     </row>
-    <row r="132" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="64"/>
-      <c r="B132" s="39"/>
+    <row r="132" spans="1:16" s="5" customFormat="1">
+      <c r="A132" s="48"/>
+      <c r="B132" s="69"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -6364,7 +6595,7 @@
       <c r="G132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H132" s="12"/>
+      <c r="H132" s="40"/>
       <c r="I132" s="3" t="s">
         <v>22</v>
       </c>
@@ -6382,9 +6613,9 @@
       </c>
       <c r="P132" s="12"/>
     </row>
-    <row r="133" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="64"/>
-      <c r="B133" s="39"/>
+    <row r="133" spans="1:16" s="5" customFormat="1">
+      <c r="A133" s="48"/>
+      <c r="B133" s="69"/>
       <c r="C133" s="3" t="s">
         <v>25</v>
       </c>
@@ -6396,7 +6627,7 @@
       <c r="G133" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H133" s="12"/>
+      <c r="H133" s="40"/>
       <c r="I133" s="3" t="s">
         <v>25</v>
       </c>
@@ -6414,9 +6645,9 @@
       </c>
       <c r="P133" s="12"/>
     </row>
-    <row r="134" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="64"/>
-      <c r="B134" s="40"/>
+    <row r="134" spans="1:16" s="5" customFormat="1">
+      <c r="A134" s="48"/>
+      <c r="B134" s="72"/>
       <c r="C134" s="14" t="s">
         <v>28</v>
       </c>
@@ -6428,7 +6659,7 @@
       <c r="G134" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H134" s="17"/>
+      <c r="H134" s="41"/>
       <c r="I134" s="14" t="s">
         <v>28</v>
       </c>
@@ -6446,10 +6677,10 @@
       </c>
       <c r="P134" s="17"/>
     </row>
-    <row r="135" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="64"/>
-      <c r="B135" s="34" t="s">
-        <v>159</v>
+    <row r="135" spans="1:16" s="5" customFormat="1">
+      <c r="A135" s="48"/>
+      <c r="B135" s="55" t="s">
+        <v>160</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
@@ -6462,7 +6693,7 @@
       <c r="G135" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H135" s="16"/>
+      <c r="H135" s="39"/>
       <c r="I135" s="2" t="s">
         <v>19</v>
       </c>
@@ -6480,9 +6711,9 @@
       </c>
       <c r="P135" s="16"/>
     </row>
-    <row r="136" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="64"/>
-      <c r="B136" s="34"/>
+    <row r="136" spans="1:16" s="5" customFormat="1">
+      <c r="A136" s="48"/>
+      <c r="B136" s="55"/>
       <c r="C136" s="3" t="s">
         <v>22</v>
       </c>
@@ -6494,7 +6725,7 @@
       <c r="G136" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H136" s="12"/>
+      <c r="H136" s="40"/>
       <c r="I136" s="3" t="s">
         <v>22</v>
       </c>
@@ -6512,9 +6743,9 @@
       </c>
       <c r="P136" s="12"/>
     </row>
-    <row r="137" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="64"/>
-      <c r="B137" s="34"/>
+    <row r="137" spans="1:16" s="5" customFormat="1">
+      <c r="A137" s="48"/>
+      <c r="B137" s="55"/>
       <c r="C137" s="3" t="s">
         <v>25</v>
       </c>
@@ -6526,7 +6757,7 @@
       <c r="G137" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H137" s="12"/>
+      <c r="H137" s="40"/>
       <c r="I137" s="3" t="s">
         <v>25</v>
       </c>
@@ -6544,9 +6775,9 @@
       </c>
       <c r="P137" s="12"/>
     </row>
-    <row r="138" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="64"/>
-      <c r="B138" s="34"/>
+    <row r="138" spans="1:16" s="5" customFormat="1">
+      <c r="A138" s="48"/>
+      <c r="B138" s="55"/>
       <c r="C138" s="14" t="s">
         <v>28</v>
       </c>
@@ -6558,7 +6789,7 @@
       <c r="G138" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H138" s="17"/>
+      <c r="H138" s="41"/>
       <c r="I138" s="14" t="s">
         <v>28</v>
       </c>
@@ -6576,10 +6807,10 @@
       </c>
       <c r="P138" s="17"/>
     </row>
-    <row r="139" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="64"/>
-      <c r="B139" s="56" t="s">
-        <v>44</v>
+    <row r="139" spans="1:16" s="5" customFormat="1">
+      <c r="A139" s="48"/>
+      <c r="B139" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
@@ -6592,7 +6823,7 @@
       <c r="G139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H139" s="16"/>
+      <c r="H139" s="39"/>
       <c r="I139" s="2" t="s">
         <v>19</v>
       </c>
@@ -6610,9 +6841,9 @@
       </c>
       <c r="P139" s="16"/>
     </row>
-    <row r="140" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="64"/>
-      <c r="B140" s="57"/>
+    <row r="140" spans="1:16" s="5" customFormat="1">
+      <c r="A140" s="48"/>
+      <c r="B140" s="59"/>
       <c r="C140" s="3" t="s">
         <v>22</v>
       </c>
@@ -6624,7 +6855,7 @@
       <c r="G140" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H140" s="12"/>
+      <c r="H140" s="40"/>
       <c r="I140" s="3" t="s">
         <v>22</v>
       </c>
@@ -6642,9 +6873,9 @@
       </c>
       <c r="P140" s="12"/>
     </row>
-    <row r="141" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="64"/>
-      <c r="B141" s="57"/>
+    <row r="141" spans="1:16" s="5" customFormat="1">
+      <c r="A141" s="48"/>
+      <c r="B141" s="59"/>
       <c r="C141" s="3" t="s">
         <v>25</v>
       </c>
@@ -6656,7 +6887,7 @@
       <c r="G141" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H141" s="12"/>
+      <c r="H141" s="40"/>
       <c r="I141" s="3" t="s">
         <v>25</v>
       </c>
@@ -6674,9 +6905,9 @@
       </c>
       <c r="P141" s="12"/>
     </row>
-    <row r="142" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="65"/>
-      <c r="B142" s="58"/>
+    <row r="142" spans="1:16" s="7" customFormat="1">
+      <c r="A142" s="49"/>
+      <c r="B142" s="60"/>
       <c r="C142" s="10" t="s">
         <v>28</v>
       </c>
@@ -6688,7 +6919,7 @@
       <c r="G142" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="15"/>
+      <c r="H142" s="42"/>
       <c r="I142" s="10" t="s">
         <v>28</v>
       </c>
@@ -6706,18 +6937,18 @@
       </c>
       <c r="P142" s="17"/>
     </row>
-    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B143" s="33" t="s">
+    <row r="143" spans="1:16" s="4" customFormat="1">
+      <c r="A143" s="50" t="s">
         <v>161</v>
       </c>
+      <c r="B143" s="54" t="s">
+        <v>162</v>
+      </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>19</v>
@@ -6726,7 +6957,7 @@
       <c r="G143" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H143" s="3"/>
+      <c r="H143" s="33"/>
       <c r="I143" s="2" t="s">
         <v>19</v>
       </c>
@@ -6744,14 +6975,14 @@
       </c>
       <c r="P143" s="11"/>
     </row>
-    <row r="144" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="34"/>
+    <row r="144" spans="1:16" s="5" customFormat="1">
+      <c r="A144" s="51"/>
+      <c r="B144" s="55"/>
       <c r="C144" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>22</v>
@@ -6760,7 +6991,7 @@
       <c r="G144" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H144" s="3"/>
+      <c r="H144" s="33"/>
       <c r="I144" s="3" t="s">
         <v>22</v>
       </c>
@@ -6778,14 +7009,14 @@
       </c>
       <c r="P144" s="3"/>
     </row>
-    <row r="145" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="34"/>
+    <row r="145" spans="1:16" s="5" customFormat="1">
+      <c r="A145" s="51"/>
+      <c r="B145" s="55"/>
       <c r="C145" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>25</v>
@@ -6794,7 +7025,7 @@
       <c r="G145" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H145" s="3"/>
+      <c r="H145" s="33"/>
       <c r="I145" s="3" t="s">
         <v>25</v>
       </c>
@@ -6812,9 +7043,9 @@
       </c>
       <c r="P145" s="3"/>
     </row>
-    <row r="146" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="34"/>
+    <row r="146" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A146" s="51"/>
+      <c r="B146" s="55"/>
       <c r="C146" s="14" t="s">
         <v>28</v>
       </c>
@@ -6828,7 +7059,7 @@
       <c r="G146" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H146" s="3"/>
+      <c r="H146" s="33"/>
       <c r="I146" s="14" t="s">
         <v>28</v>
       </c>
@@ -6846,16 +7077,16 @@
       </c>
       <c r="P146" s="3"/>
     </row>
-    <row r="147" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="36"/>
-      <c r="B147" s="46" t="s">
-        <v>165</v>
+    <row r="147" spans="1:16" s="5" customFormat="1">
+      <c r="A147" s="51"/>
+      <c r="B147" s="61" t="s">
+        <v>166</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>19</v>
@@ -6864,7 +7095,7 @@
       <c r="G147" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H147" s="16"/>
+      <c r="H147" s="39"/>
       <c r="I147" s="2" t="s">
         <v>19</v>
       </c>
@@ -6882,14 +7113,14 @@
       </c>
       <c r="P147" s="16"/>
     </row>
-    <row r="148" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="36"/>
-      <c r="B148" s="47"/>
+    <row r="148" spans="1:16" s="5" customFormat="1">
+      <c r="A148" s="51"/>
+      <c r="B148" s="62"/>
       <c r="C148" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>22</v>
@@ -6898,7 +7129,7 @@
       <c r="G148" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H148" s="12"/>
+      <c r="H148" s="40"/>
       <c r="I148" s="3" t="s">
         <v>22</v>
       </c>
@@ -6916,14 +7147,14 @@
       </c>
       <c r="P148" s="12"/>
     </row>
-    <row r="149" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="47"/>
+    <row r="149" spans="1:16" s="5" customFormat="1">
+      <c r="A149" s="51"/>
+      <c r="B149" s="62"/>
       <c r="C149" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>25</v>
@@ -6932,7 +7163,7 @@
       <c r="G149" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H149" s="12"/>
+      <c r="H149" s="40"/>
       <c r="I149" s="3" t="s">
         <v>25</v>
       </c>
@@ -6950,9 +7181,9 @@
       </c>
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="36"/>
-      <c r="B150" s="47"/>
+    <row r="150" spans="1:16" s="5" customFormat="1" ht="45">
+      <c r="A150" s="51"/>
+      <c r="B150" s="62"/>
       <c r="C150" s="14" t="s">
         <v>28</v>
       </c>
@@ -6966,7 +7197,7 @@
       <c r="G150" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H150" s="17"/>
+      <c r="H150" s="41"/>
       <c r="I150" s="14" t="s">
         <v>28</v>
       </c>
@@ -6984,16 +7215,16 @@
       </c>
       <c r="P150" s="17"/>
     </row>
-    <row r="151" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="43" t="s">
-        <v>169</v>
+    <row r="151" spans="1:16" s="5" customFormat="1">
+      <c r="A151" s="51"/>
+      <c r="B151" s="56" t="s">
+        <v>170</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>19</v>
@@ -7002,7 +7233,7 @@
       <c r="G151" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H151" s="16"/>
+      <c r="H151" s="39"/>
       <c r="I151" s="2" t="s">
         <v>19</v>
       </c>
@@ -7020,14 +7251,14 @@
       </c>
       <c r="P151" s="16"/>
     </row>
-    <row r="152" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="44"/>
+    <row r="152" spans="1:16" s="5" customFormat="1">
+      <c r="A152" s="51"/>
+      <c r="B152" s="57"/>
       <c r="C152" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>22</v>
@@ -7036,7 +7267,7 @@
       <c r="G152" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H152" s="12"/>
+      <c r="H152" s="40"/>
       <c r="I152" s="3" t="s">
         <v>22</v>
       </c>
@@ -7054,14 +7285,14 @@
       </c>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
-      <c r="B153" s="44"/>
+    <row r="153" spans="1:16" s="5" customFormat="1">
+      <c r="A153" s="51"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>25</v>
@@ -7070,7 +7301,7 @@
       <c r="G153" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H153" s="12"/>
+      <c r="H153" s="40"/>
       <c r="I153" s="3" t="s">
         <v>25</v>
       </c>
@@ -7088,13 +7319,13 @@
       </c>
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="1:16" s="7" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="37"/>
-      <c r="B154" s="59"/>
+    <row r="154" spans="1:16" s="7" customFormat="1" ht="45">
+      <c r="A154" s="52"/>
+      <c r="B154" s="63"/>
       <c r="C154" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D154" s="70" t="s">
+      <c r="D154" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E154" s="10" t="s">
@@ -7104,7 +7335,7 @@
       <c r="G154" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H154" s="15"/>
+      <c r="H154" s="42"/>
       <c r="I154" s="10" t="s">
         <v>28</v>
       </c>
@@ -7122,682 +7353,750 @@
       </c>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B155" s="71" t="s">
+    <row r="155" spans="1:16">
+      <c r="B155" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="B156" s="64"/>
+      <c r="D156" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B156" s="71"/>
-      <c r="D156" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F156" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B157" s="71"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="B157" s="64"/>
       <c r="D157" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B158" s="71"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B159" s="60"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B160" s="60"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="60"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="60"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="60"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="60"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="60"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="60"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="60"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="60"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="60"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="60"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="60"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="60"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="60"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="60"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="60"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="60"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="60"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="60"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="60"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="60"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="60"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="60"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="60"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="60"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="60"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="60"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="60"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="60"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="60"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="60"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="60"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="60"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="60"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="60"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="60"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="60"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="60"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="60"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="60"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="60"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="60"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="60"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="60"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="60"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="60"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="60"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="60"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="60"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="60"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="60"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="60"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="60"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="60"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="60"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="60"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="60"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="60"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="60"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="60"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="60"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="60"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="60"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="60"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="60"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="60"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="60"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="60"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="60"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="60"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="60"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="60"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="60"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="60"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="60"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="60"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="60"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="60"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="60"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="60"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="60"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="60"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="60"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="60"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="60"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="60"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="60"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="60"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="60"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="60"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="60"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="60"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="60"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="60"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="60"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="60"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="60"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="60"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="60"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="60"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="60"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="60"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="60"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="60"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="60"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="60"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="60"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="60"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="60"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="60"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="60"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="60"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="60"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="60"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="60"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="60"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="60"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="60"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="60"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="60"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="60"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="60"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="60"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="60"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="60"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="60"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="60"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="60"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="60"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="60"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="60"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="60"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="60"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="60"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="60"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="60"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="60"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="60"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="60"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="60"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="60"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="60"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="60"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="60"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="60"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="60"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="60"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="60"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="60"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="60"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="60"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="60"/>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="60"/>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="60"/>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="60"/>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="60"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="60"/>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="60"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="60"/>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="60"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="60"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="60"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="60"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="60"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="60"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="60"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="60"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="60"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="60"/>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="60"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="60"/>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="60"/>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="60"/>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="60"/>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="60"/>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="60"/>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="60"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="60"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="60"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="60"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="60"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="60"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="60"/>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="60"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="60"/>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="60"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="60"/>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="60"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="60"/>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="60"/>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="60"/>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="60"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="60"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="60"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="60"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="60"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="60"/>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="60"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="60"/>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="60"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="60"/>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="60"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="60"/>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="60"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="60"/>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="60"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="60"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="60"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="60"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="60"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="60"/>
-    </row>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="B158" s="64"/>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="B159" s="53"/>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="B160" s="53"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="53"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="53"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="53"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="53"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="53"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="53"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="53"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="53"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="53"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="53"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="53"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="53"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="53"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="53"/>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="53"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="53"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="53"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="53"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="53"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="53"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="53"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="53"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="53"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="53"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="53"/>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="53"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="53"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="53"/>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="53"/>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="53"/>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="53"/>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="53"/>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="53"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="53"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="53"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="53"/>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="53"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="53"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="53"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="53"/>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="53"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="53"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="53"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="53"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="53"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="53"/>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="53"/>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="53"/>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="53"/>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="53"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="53"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="53"/>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="53"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="53"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="53"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="53"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="53"/>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="53"/>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="53"/>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="53"/>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="53"/>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="53"/>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="53"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="53"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="53"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="53"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="53"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="53"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="53"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="53"/>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="53"/>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="53"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="53"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="53"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="53"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="53"/>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="53"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="53"/>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="53"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="53"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="53"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="53"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="53"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="53"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="53"/>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="53"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="53"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="53"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="53"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="53"/>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="53"/>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="53"/>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="53"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="53"/>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="53"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="53"/>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="53"/>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="53"/>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="53"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="53"/>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="53"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="53"/>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="53"/>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="53"/>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="53"/>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="53"/>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="53"/>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="53"/>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="53"/>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="53"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="53"/>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="53"/>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="53"/>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="53"/>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="53"/>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="53"/>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="53"/>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="53"/>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="53"/>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="53"/>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="53"/>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="53"/>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="53"/>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="53"/>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="53"/>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="53"/>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="53"/>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="53"/>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="53"/>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="53"/>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="53"/>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="53"/>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="53"/>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="53"/>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="53"/>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="53"/>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="53"/>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="53"/>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="53"/>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="53"/>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="53"/>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="53"/>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="53"/>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="53"/>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="53"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="53"/>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="53"/>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="53"/>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="53"/>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="53"/>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="53"/>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="53"/>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="53"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="53"/>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="53"/>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="53"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="53"/>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="53"/>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="53"/>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="53"/>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="53"/>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="53"/>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="53"/>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="53"/>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="53"/>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="53"/>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="53"/>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="53"/>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="53"/>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="53"/>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="53"/>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="53"/>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="53"/>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="53"/>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="53"/>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="53"/>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="53"/>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="53"/>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="53"/>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="53"/>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="53"/>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="53"/>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="53"/>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="53"/>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="53"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="53"/>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="53"/>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="53"/>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="53"/>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="53"/>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="53"/>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="53"/>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="53"/>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="53"/>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="53"/>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="53"/>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="53"/>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="53"/>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="53"/>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="53"/>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="53"/>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="53"/>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" s="53"/>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="53"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="53"/>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="53"/>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="53"/>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="53"/>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="53"/>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="53"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="A83:A98"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="A99:A114"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B367:B370"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B327:B330"/>
+    <mergeCell ref="B331:B334"/>
+    <mergeCell ref="B335:B338"/>
+    <mergeCell ref="B339:B342"/>
+    <mergeCell ref="B343:B346"/>
+    <mergeCell ref="B347:B350"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="B307:B310"/>
+    <mergeCell ref="B311:B314"/>
+    <mergeCell ref="B315:B318"/>
+    <mergeCell ref="B319:B322"/>
+    <mergeCell ref="B323:B326"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B287:B290"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B263:B266"/>
     <mergeCell ref="A115:A142"/>
     <mergeCell ref="A143:A154"/>
     <mergeCell ref="C1:D1"/>
@@ -7822,85 +8121,18 @@
     <mergeCell ref="B223:B226"/>
     <mergeCell ref="B227:B230"/>
     <mergeCell ref="B183:B186"/>
-    <mergeCell ref="B367:B370"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B327:B330"/>
-    <mergeCell ref="B331:B334"/>
-    <mergeCell ref="B335:B338"/>
-    <mergeCell ref="B339:B342"/>
-    <mergeCell ref="B343:B346"/>
-    <mergeCell ref="B347:B350"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="B307:B310"/>
-    <mergeCell ref="B311:B314"/>
-    <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B319:B322"/>
-    <mergeCell ref="B323:B326"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B287:B290"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="A83:A98"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="A99:A114"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A35:A50"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e8ce84066fb867c/Dokumente/UNI/Trampolin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1019C1-E579-4C12-AE23-3893FB15A331}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E283A1CD-2941-46AF-A72E-A9D559229694}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="900" windowWidth="20295" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="900" windowWidth="31230" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Lisa Riedel</author>
   </authors>
   <commentList>
-    <comment ref="B119" authorId="0" shapeId="0" xr:uid="{85DDB106-B93E-49E2-A098-C757B1D356B8}">
+    <comment ref="B131" authorId="0" shapeId="0" xr:uid="{85DDB106-B93E-49E2-A098-C757B1D356B8}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B123" authorId="0" shapeId="0" xr:uid="{0745DA8D-65F6-407F-8FC9-36EBF593B21C}">
+    <comment ref="B135" authorId="0" shapeId="0" xr:uid="{0745DA8D-65F6-407F-8FC9-36EBF593B21C}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B127" authorId="0" shapeId="0" xr:uid="{9882F753-CA0B-44E9-9D9F-D8EDABEB438D}">
+    <comment ref="B139" authorId="0" shapeId="0" xr:uid="{9882F753-CA0B-44E9-9D9F-D8EDABEB438D}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B131" authorId="0" shapeId="0" xr:uid="{99DB42FF-0D6D-4400-A495-3FA4EE0828C8}">
+    <comment ref="B143" authorId="0" shapeId="0" xr:uid="{99DB42FF-0D6D-4400-A495-3FA4EE0828C8}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="0" shapeId="0" xr:uid="{A6264713-E4DF-474E-B16B-B509B975F3A5}">
+    <comment ref="B147" authorId="0" shapeId="0" xr:uid="{A6264713-E4DF-474E-B16B-B509B975F3A5}">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A143" authorId="0" shapeId="0" xr:uid="{6330A3F7-51BD-4018-B604-758D8E6764F4}">
+    <comment ref="A155" authorId="0" shapeId="0" xr:uid="{6330A3F7-51BD-4018-B604-758D8E6764F4}">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="205">
   <si>
     <t>classification algorithm</t>
   </si>
@@ -610,6 +610,48 @@
     <t>0.8752</t>
   </si>
   <si>
+    <t>testing zone for preprocessed data</t>
+  </si>
+  <si>
+    <t>best model without prepocessed data</t>
+  </si>
+  <si>
+    <t>0.8912</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>0.8958</t>
+  </si>
+  <si>
+    <t>runs=10, conv=1, kernel=3, pool=2, dense=2, act_func='tanh', loss='categorical_crossentropy', optim='Nadam', epochs=40</t>
+  </si>
+  <si>
+    <t>only preprocessed data</t>
+  </si>
+  <si>
+    <t>0.6774</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>best model without ACC_N_ROT_Fil</t>
+  </si>
+  <si>
+    <t>0.8882</t>
+  </si>
+  <si>
+    <t>0.8738</t>
+  </si>
+  <si>
+    <t>0.8843</t>
+  </si>
+  <si>
+    <t>kernel = 'linear', without processed data also</t>
+  </si>
+  <si>
     <t xml:space="preserve">avg and std </t>
   </si>
   <si>
@@ -655,19 +697,61 @@
     <t>half_avg</t>
   </si>
   <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.8746</t>
+  </si>
+  <si>
     <t>quatered</t>
   </si>
   <si>
+    <t>0.8853</t>
+  </si>
+  <si>
+    <t>0.8715</t>
+  </si>
+  <si>
+    <t>0.8932</t>
+  </si>
+  <si>
     <t>jump_time_splits</t>
   </si>
   <si>
+    <t>0.8412</t>
+  </si>
+  <si>
+    <t>0.8143</t>
+  </si>
+  <si>
     <t>jumps_time_splits_21</t>
   </si>
   <si>
+    <t>0.8472</t>
+  </si>
+  <si>
+    <t>0.8666</t>
+  </si>
+  <si>
     <t>jumps_time_splits_51</t>
   </si>
   <si>
+    <t>0.8206</t>
+  </si>
+  <si>
+    <t>0.7549</t>
+  </si>
+  <si>
+    <t>0.7926</t>
+  </si>
+  <si>
     <t>jumps_time_splits_101</t>
+  </si>
+  <si>
+    <t>0.7162</t>
+  </si>
+  <si>
+    <t>0.7597</t>
   </si>
   <si>
     <t>same length</t>
@@ -722,7 +806,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,7 +887,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,8 +900,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1244,11 +1340,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1336,6 +1528,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,9 +1625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,6 +1642,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,6 +1703,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,24 +1736,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1482,6 +1744,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFF7F7F7"/>
       <color rgb="FFFBFBFB"/>
       <color rgb="FFE5DFE3"/>
       <color rgb="FFEAECF2"/>
@@ -1500,7 +1763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1796,13 +2059,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:P382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H94" sqref="H91:H94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -1819,85 +2085,85 @@
     <col min="13" max="13" width="10.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="45.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="45.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="45.7109375" style="33" customWidth="1"/>
     <col min="16384" max="16384" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="P1" s="74"/>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="45" t="s">
+      <c r="H2" s="76"/>
+      <c r="I2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="45" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="45" t="s">
+      <c r="N2" s="76"/>
+      <c r="O2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="46"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1">
-      <c r="A3" s="50" t="s">
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1933,11 +2199,13 @@
       <c r="O3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" s="5" customFormat="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="55"/>
+      <c r="P3" s="32">
+        <v>0.85880000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1971,11 +2239,13 @@
       <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" s="5" customFormat="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="55"/>
+      <c r="P4" s="33">
+        <v>0.75319999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2009,11 +2279,13 @@
       <c r="O5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A6" s="51"/>
-      <c r="B6" s="80"/>
+      <c r="P5" s="33">
+        <v>0.7167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
@@ -2047,11 +2319,11 @@
       <c r="O6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" s="5" customFormat="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="69" t="s">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="99" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2087,11 +2359,13 @@
       <c r="O7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" s="5" customFormat="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="69"/>
+      <c r="P7" s="33">
+        <v>0.86180000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2125,11 +2399,13 @@
       <c r="O8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="69"/>
+      <c r="P8" s="33">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
@@ -2163,11 +2439,13 @@
       <c r="O9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A10" s="51"/>
-      <c r="B10" s="72"/>
+      <c r="P9" s="33">
+        <v>0.71719999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2201,11 +2479,11 @@
       <c r="O10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="70" t="s">
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="100" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2241,11 +2519,13 @@
       <c r="O11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" s="5" customFormat="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="55"/>
+      <c r="P11" s="37">
+        <v>0.87649999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2279,11 +2559,13 @@
       <c r="O12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="55"/>
+      <c r="P12" s="33">
+        <v>0.72350000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -2317,15 +2599,17 @@
       <c r="O13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A14" s="51"/>
-      <c r="B14" s="81"/>
+      <c r="P13" s="33">
+        <v>0.69679999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="26" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -2355,11 +2639,11 @@
       <c r="O14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="77" t="s">
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2389,11 +2673,11 @@
       <c r="O15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" s="5" customFormat="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="77"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -2421,11 +2705,11 @@
       <c r="O16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" s="5" customFormat="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="77"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
@@ -2453,11 +2737,11 @@
       <c r="O17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" s="7" customFormat="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="78"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="82"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
@@ -2485,13 +2769,13 @@
       <c r="O18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1">
-      <c r="A19" s="50" t="s">
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="90" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2527,11 +2811,13 @@
       <c r="O19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" s="5" customFormat="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55"/>
+      <c r="P19" s="32">
+        <v>0.86470000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2565,11 +2851,13 @@
       <c r="O20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" s="5" customFormat="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="55"/>
+      <c r="P20" s="33">
+        <v>0.73219999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2603,15 +2891,17 @@
       <c r="O21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A22" s="51"/>
-      <c r="B22" s="55"/>
+      <c r="P21" s="33">
+        <v>0.6966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2641,11 +2931,11 @@
       <c r="O22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" s="5" customFormat="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="56" t="s">
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="85" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2681,11 +2971,13 @@
       <c r="O23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" s="5" customFormat="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="57"/>
+      <c r="P23" s="33">
+        <v>0.85880000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2719,11 +3011,13 @@
       <c r="O24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" s="5" customFormat="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="57"/>
+      <c r="P24" s="33">
+        <v>0.75319999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -2757,11 +3051,13 @@
       <c r="O25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A26" s="51"/>
-      <c r="B26" s="73"/>
+      <c r="P25" s="33">
+        <v>0.7167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="14" t="s">
         <v>28</v>
       </c>
@@ -2795,11 +3091,11 @@
       <c r="O26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="1:16" s="5" customFormat="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="69" t="s">
+      <c r="P26" s="38"/>
+    </row>
+    <row r="27" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81"/>
+      <c r="B27" s="99" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2835,11 +3131,13 @@
       <c r="O27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" s="5" customFormat="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="69"/>
+      <c r="P27" s="37">
+        <v>0.88529999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
@@ -2873,11 +3171,13 @@
       <c r="O28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" s="5" customFormat="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="69"/>
+      <c r="P28" s="33">
+        <v>0.76639999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
@@ -2911,15 +3211,17 @@
       <c r="O29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A30" s="51"/>
-      <c r="B30" s="72"/>
+      <c r="P29" s="33">
+        <v>0.73540000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="81"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -2949,11 +3251,11 @@
       <c r="O30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" s="5" customFormat="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="77" t="s">
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81"/>
+      <c r="B31" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2983,11 +3285,11 @@
       <c r="O31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" s="5" customFormat="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="77"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
@@ -3015,11 +3317,11 @@
       <c r="O32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" s="5" customFormat="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="77"/>
+      <c r="P32" s="33"/>
+    </row>
+    <row r="33" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="3" t="s">
         <v>25</v>
       </c>
@@ -3047,11 +3349,11 @@
       <c r="O33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" s="7" customFormat="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="78"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="10" t="s">
         <v>28</v>
       </c>
@@ -3079,13 +3381,13 @@
       <c r="O34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" s="4" customFormat="1">
-      <c r="A35" s="50" t="s">
+      <c r="P34" s="35"/>
+    </row>
+    <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="90" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -3121,11 +3423,13 @@
       <c r="O35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" s="5" customFormat="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="55"/>
+      <c r="P35" s="32">
+        <v>0.85589999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
@@ -3159,11 +3463,13 @@
       <c r="O36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" s="5" customFormat="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="55"/>
+      <c r="P36" s="33">
+        <v>0.75239999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
@@ -3197,11 +3503,13 @@
       <c r="O37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A38" s="51"/>
-      <c r="B38" s="55"/>
+      <c r="P37" s="33">
+        <v>0.71879999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="6" t="s">
         <v>28</v>
       </c>
@@ -3235,11 +3543,11 @@
       <c r="O38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" s="5" customFormat="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="61" t="s">
+      <c r="P38" s="34"/>
+    </row>
+    <row r="39" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="91" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3275,11 +3583,13 @@
       <c r="O39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" s="5" customFormat="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="62"/>
+      <c r="P39" s="33">
+        <v>0.86470000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
@@ -3313,11 +3623,13 @@
       <c r="O40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" s="5" customFormat="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="62"/>
+      <c r="P40" s="33">
+        <v>0.76629999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="3" t="s">
         <v>25</v>
       </c>
@@ -3351,11 +3663,13 @@
       <c r="O41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A42" s="51"/>
-      <c r="B42" s="82"/>
+      <c r="P41" s="33">
+        <v>0.72219999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="81"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="14" t="s">
         <v>28</v>
       </c>
@@ -3389,11 +3703,11 @@
       <c r="O42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P42" s="14"/>
-    </row>
-    <row r="43" spans="1:16" s="5" customFormat="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="69" t="s">
+      <c r="P42" s="38"/>
+    </row>
+    <row r="43" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="99" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3429,11 +3743,13 @@
       <c r="O43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P43" s="13"/>
-    </row>
-    <row r="44" spans="1:16" s="5" customFormat="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="69"/>
+      <c r="P43" s="46">
+        <v>0.88819999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="81"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
@@ -3467,11 +3783,13 @@
       <c r="O44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" s="5" customFormat="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="69"/>
+      <c r="P44" s="47">
+        <v>0.77259999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="81"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="3" t="s">
         <v>25</v>
       </c>
@@ -3505,15 +3823,17 @@
       <c r="O45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A46" s="51"/>
-      <c r="B46" s="72"/>
+      <c r="P45" s="47">
+        <v>0.73150000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E46" s="14" t="s">
@@ -3543,11 +3863,11 @@
       <c r="O46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P46" s="14"/>
-    </row>
-    <row r="47" spans="1:16" s="5" customFormat="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="77" t="s">
+      <c r="P46" s="38"/>
+    </row>
+    <row r="47" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81"/>
+      <c r="B47" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3577,11 +3897,11 @@
       <c r="O47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" s="5" customFormat="1">
-      <c r="A48" s="51"/>
-      <c r="B48" s="77"/>
+      <c r="P47" s="33"/>
+    </row>
+    <row r="48" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="81"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
@@ -3609,11 +3929,11 @@
       <c r="O48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" s="5" customFormat="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="77"/>
+      <c r="P48" s="33"/>
+    </row>
+    <row r="49" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="3" t="s">
         <v>25</v>
       </c>
@@ -3641,11 +3961,11 @@
       <c r="O49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" s="7" customFormat="1">
-      <c r="A50" s="52"/>
-      <c r="B50" s="78"/>
+      <c r="P49" s="33"/>
+    </row>
+    <row r="50" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="82"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="10" t="s">
         <v>28</v>
       </c>
@@ -3673,13 +3993,13 @@
       <c r="O50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="1:16" s="4" customFormat="1">
-      <c r="A51" s="50" t="s">
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="90" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -3715,11 +4035,13 @@
       <c r="O51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="1:16" s="5" customFormat="1">
-      <c r="A52" s="51"/>
-      <c r="B52" s="55"/>
+      <c r="P51" s="32">
+        <v>0.86180000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="81"/>
+      <c r="B52" s="84"/>
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
@@ -3753,11 +4075,13 @@
       <c r="O52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" s="5" customFormat="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="55"/>
+      <c r="P52" s="33">
+        <v>0.76680000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="3" t="s">
         <v>25</v>
       </c>
@@ -3791,11 +4115,13 @@
       <c r="O53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A54" s="51"/>
-      <c r="B54" s="55"/>
+      <c r="P53" s="33">
+        <v>0.72540000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="81"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="6" t="s">
         <v>28</v>
       </c>
@@ -3829,11 +4155,11 @@
       <c r="O54" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P54" s="6"/>
-    </row>
-    <row r="55" spans="1:16" s="5" customFormat="1">
-      <c r="A55" s="51"/>
-      <c r="B55" s="74" t="s">
+      <c r="P54" s="34"/>
+    </row>
+    <row r="55" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="81"/>
+      <c r="B55" s="104" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3869,11 +4195,13 @@
       <c r="O55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" s="5" customFormat="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="75"/>
+      <c r="P55" s="33">
+        <v>0.87939999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="81"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
@@ -3907,11 +4235,13 @@
       <c r="O56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" s="5" customFormat="1">
-      <c r="A57" s="51"/>
-      <c r="B57" s="75"/>
+      <c r="P56" s="33">
+        <v>0.80410000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="81"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="3" t="s">
         <v>25</v>
       </c>
@@ -3945,11 +4275,13 @@
       <c r="O57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A58" s="51"/>
-      <c r="B58" s="76"/>
+      <c r="P57" s="33">
+        <v>0.7581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="81"/>
+      <c r="B58" s="106"/>
       <c r="C58" s="14" t="s">
         <v>28</v>
       </c>
@@ -3983,11 +4315,11 @@
       <c r="O58" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P58" s="14"/>
-    </row>
-    <row r="59" spans="1:16" s="5" customFormat="1">
-      <c r="A59" s="51"/>
-      <c r="B59" s="74" t="s">
+      <c r="P58" s="38"/>
+    </row>
+    <row r="59" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="81"/>
+      <c r="B59" s="104" t="s">
         <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -4023,11 +4355,13 @@
       <c r="O59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P59" s="13"/>
-    </row>
-    <row r="60" spans="1:16" s="5" customFormat="1">
-      <c r="A60" s="51"/>
-      <c r="B60" s="75"/>
+      <c r="P59" s="43">
+        <v>0.88819999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="3" t="s">
         <v>22</v>
       </c>
@@ -4061,11 +4395,13 @@
       <c r="O60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" s="5" customFormat="1">
-      <c r="A61" s="51"/>
-      <c r="B61" s="75"/>
+      <c r="P60" s="44">
+        <v>0.80149999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="81"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="3" t="s">
         <v>25</v>
       </c>
@@ -4099,15 +4435,17 @@
       <c r="O61" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A62" s="51"/>
-      <c r="B62" s="76"/>
+      <c r="P61" s="44">
+        <v>0.76470000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="81"/>
+      <c r="B62" s="106"/>
       <c r="C62" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="26" t="s">
         <v>74</v>
       </c>
       <c r="E62" s="14" t="s">
@@ -4137,11 +4475,11 @@
       <c r="O62" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P62" s="14"/>
-    </row>
-    <row r="63" spans="1:16" s="5" customFormat="1">
-      <c r="A63" s="51"/>
-      <c r="B63" s="77" t="s">
+      <c r="P62" s="38"/>
+    </row>
+    <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="81"/>
+      <c r="B63" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4171,11 +4509,11 @@
       <c r="O63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" s="5" customFormat="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="77"/>
+      <c r="P63" s="33"/>
+    </row>
+    <row r="64" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="81"/>
+      <c r="B64" s="107"/>
       <c r="C64" s="3" t="s">
         <v>22</v>
       </c>
@@ -4203,11 +4541,11 @@
       <c r="O64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:16" s="5" customFormat="1">
-      <c r="A65" s="51"/>
-      <c r="B65" s="77"/>
+      <c r="P64" s="33"/>
+    </row>
+    <row r="65" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="3" t="s">
         <v>25</v>
       </c>
@@ -4235,11 +4573,11 @@
       <c r="O65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" s="7" customFormat="1">
-      <c r="A66" s="52"/>
-      <c r="B66" s="78"/>
+      <c r="P65" s="33"/>
+    </row>
+    <row r="66" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="82"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="10" t="s">
         <v>28</v>
       </c>
@@ -4267,13 +4605,13 @@
       <c r="O66" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P66" s="10"/>
-    </row>
-    <row r="67" spans="1:16" s="4" customFormat="1">
-      <c r="A67" s="50" t="s">
+      <c r="P66" s="35"/>
+    </row>
+    <row r="67" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="90" t="s">
         <v>106</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -4309,11 +4647,13 @@
       <c r="O67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P67" s="9"/>
-    </row>
-    <row r="68" spans="1:16" s="5" customFormat="1">
-      <c r="A68" s="51"/>
-      <c r="B68" s="55"/>
+      <c r="P67" s="32">
+        <v>0.87350000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="81"/>
+      <c r="B68" s="84"/>
       <c r="C68" s="3" t="s">
         <v>22</v>
       </c>
@@ -4347,11 +4687,13 @@
       <c r="O68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" s="5" customFormat="1">
-      <c r="A69" s="51"/>
-      <c r="B69" s="55"/>
+      <c r="P68" s="33">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="81"/>
+      <c r="B69" s="84"/>
       <c r="C69" s="3" t="s">
         <v>25</v>
       </c>
@@ -4385,15 +4727,17 @@
       <c r="O69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A70" s="51"/>
-      <c r="B70" s="55"/>
+      <c r="P69" s="33">
+        <v>0.76980000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="81"/>
+      <c r="B70" s="84"/>
       <c r="C70" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -4423,11 +4767,11 @@
       <c r="O70" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P70" s="6"/>
-    </row>
-    <row r="71" spans="1:16" s="5" customFormat="1">
-      <c r="A71" s="51"/>
-      <c r="B71" s="74" t="s">
+      <c r="P70" s="34"/>
+    </row>
+    <row r="71" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="81"/>
+      <c r="B71" s="104" t="s">
         <v>113</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -4463,11 +4807,13 @@
       <c r="O71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" s="5" customFormat="1">
-      <c r="A72" s="51"/>
-      <c r="B72" s="75"/>
+      <c r="P71" s="33">
+        <v>0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="81"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="3" t="s">
         <v>22</v>
       </c>
@@ -4501,11 +4847,13 @@
       <c r="O72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" s="5" customFormat="1">
-      <c r="A73" s="51"/>
-      <c r="B73" s="75"/>
+      <c r="P72" s="33">
+        <v>0.77780000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="81"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="3" t="s">
         <v>25</v>
       </c>
@@ -4539,11 +4887,13 @@
       <c r="O73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A74" s="51"/>
-      <c r="B74" s="76"/>
+      <c r="P73" s="33">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="81"/>
+      <c r="B74" s="106"/>
       <c r="C74" s="14" t="s">
         <v>28</v>
       </c>
@@ -4577,11 +4927,11 @@
       <c r="O74" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P74" s="14"/>
-    </row>
-    <row r="75" spans="1:16" s="5" customFormat="1">
-      <c r="A75" s="51"/>
-      <c r="B75" s="56" t="s">
+      <c r="P74" s="38"/>
+    </row>
+    <row r="75" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="81"/>
+      <c r="B75" s="85" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -4599,7 +4949,7 @@
       <c r="G75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="83">
+      <c r="H75" s="43">
         <v>0.93530000000000002</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -4617,11 +4967,13 @@
       <c r="O75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P75" s="13"/>
-    </row>
-    <row r="76" spans="1:16" s="5" customFormat="1">
-      <c r="A76" s="51"/>
-      <c r="B76" s="57"/>
+      <c r="P75" s="37">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="81"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="3" t="s">
         <v>22</v>
       </c>
@@ -4637,7 +4989,7 @@
       <c r="G76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="84">
+      <c r="H76" s="44">
         <v>0.83889999999999998</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -4655,11 +5007,13 @@
       <c r="O76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" s="5" customFormat="1">
-      <c r="A77" s="51"/>
-      <c r="B77" s="57"/>
+      <c r="P76" s="33">
+        <v>0.80659999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="81"/>
+      <c r="B77" s="86"/>
       <c r="C77" s="3" t="s">
         <v>25</v>
       </c>
@@ -4675,7 +5029,7 @@
       <c r="G77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="84">
+      <c r="H77" s="44">
         <v>0.82979999999999998</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -4693,15 +5047,17 @@
       <c r="O77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A78" s="51"/>
-      <c r="B78" s="73"/>
+      <c r="P77" s="33">
+        <v>0.76039999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="81"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="14" t="s">
@@ -4713,7 +5069,7 @@
       <c r="G78" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H78" s="85" t="s">
+      <c r="H78" s="45" t="s">
         <v>31</v>
       </c>
       <c r="I78" s="14" t="s">
@@ -4731,11 +5087,11 @@
       <c r="O78" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P78" s="14"/>
-    </row>
-    <row r="79" spans="1:16" s="5" customFormat="1">
-      <c r="A79" s="51"/>
-      <c r="B79" s="65" t="s">
+      <c r="P78" s="38"/>
+    </row>
+    <row r="79" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81"/>
+      <c r="B79" s="95" t="s">
         <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -4765,11 +5121,11 @@
       <c r="O79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" s="5" customFormat="1">
-      <c r="A80" s="51"/>
-      <c r="B80" s="66"/>
+      <c r="P79" s="33"/>
+    </row>
+    <row r="80" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="81"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="3" t="s">
         <v>22</v>
       </c>
@@ -4797,11 +5153,11 @@
       <c r="O80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:16" s="5" customFormat="1">
-      <c r="A81" s="51"/>
-      <c r="B81" s="66"/>
+      <c r="P80" s="33"/>
+    </row>
+    <row r="81" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="81"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="3" t="s">
         <v>25</v>
       </c>
@@ -4829,11 +5185,11 @@
       <c r="O81" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="1:16" s="7" customFormat="1">
-      <c r="A82" s="52"/>
-      <c r="B82" s="67"/>
+      <c r="P81" s="33"/>
+    </row>
+    <row r="82" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="82"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="10" t="s">
         <v>28</v>
       </c>
@@ -4861,13 +5217,13 @@
       <c r="O82" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P82" s="10"/>
-    </row>
-    <row r="83" spans="1:16" s="4" customFormat="1">
-      <c r="A83" s="50" t="s">
+      <c r="P82" s="35"/>
+    </row>
+    <row r="83" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="109" t="s">
         <v>124</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -4903,11 +5259,13 @@
       <c r="O83" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P83" s="9"/>
-    </row>
-    <row r="84" spans="1:16" s="5" customFormat="1">
-      <c r="A84" s="51"/>
-      <c r="B84" s="57"/>
+      <c r="P83" s="32">
+        <v>0.85880000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="81"/>
+      <c r="B84" s="86"/>
       <c r="C84" s="3" t="s">
         <v>22</v>
       </c>
@@ -4941,11 +5299,13 @@
       <c r="O84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="1:16" s="5" customFormat="1">
-      <c r="A85" s="51"/>
-      <c r="B85" s="57"/>
+      <c r="P84" s="33">
+        <v>0.78779999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="81"/>
+      <c r="B85" s="86"/>
       <c r="C85" s="3" t="s">
         <v>25</v>
       </c>
@@ -4979,11 +5339,13 @@
       <c r="O85" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A86" s="51"/>
-      <c r="B86" s="73"/>
+      <c r="P85" s="33">
+        <v>0.73939999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="81"/>
+      <c r="B86" s="103"/>
       <c r="C86" s="6" t="s">
         <v>28</v>
       </c>
@@ -5017,11 +5379,11 @@
       <c r="O86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P86" s="6"/>
-    </row>
-    <row r="87" spans="1:16" s="5" customFormat="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="57" t="s">
+      <c r="P86" s="34"/>
+    </row>
+    <row r="87" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="81"/>
+      <c r="B87" s="86" t="s">
         <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -5057,11 +5419,13 @@
       <c r="O87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P87" s="2"/>
-    </row>
-    <row r="88" spans="1:16" s="5" customFormat="1">
-      <c r="A88" s="51"/>
-      <c r="B88" s="57"/>
+      <c r="P87" s="33">
+        <v>0.85289999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="81"/>
+      <c r="B88" s="86"/>
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
@@ -5095,11 +5459,13 @@
       <c r="O88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="1:16" s="5" customFormat="1">
-      <c r="A89" s="51"/>
-      <c r="B89" s="57"/>
+      <c r="P88" s="33">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="81"/>
+      <c r="B89" s="86"/>
       <c r="C89" s="3" t="s">
         <v>25</v>
       </c>
@@ -5133,11 +5499,13 @@
       <c r="O89" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A90" s="51"/>
-      <c r="B90" s="73"/>
+      <c r="P89" s="33">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="81"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="14" t="s">
         <v>28</v>
       </c>
@@ -5171,11 +5539,11 @@
       <c r="O90" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P90" s="14"/>
-    </row>
-    <row r="91" spans="1:16" s="5" customFormat="1">
-      <c r="A91" s="51"/>
-      <c r="B91" s="55" t="s">
+      <c r="P90" s="38"/>
+    </row>
+    <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="81"/>
+      <c r="B91" s="84" t="s">
         <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5193,7 +5561,7 @@
       <c r="G91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="86">
+      <c r="H91" s="46">
         <v>0.93530000000000002</v>
       </c>
       <c r="I91" s="2" t="s">
@@ -5211,11 +5579,13 @@
       <c r="O91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="13"/>
-    </row>
-    <row r="92" spans="1:16" s="5" customFormat="1">
-      <c r="A92" s="51"/>
-      <c r="B92" s="55"/>
+      <c r="P91" s="37">
+        <v>0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="81"/>
+      <c r="B92" s="84"/>
       <c r="C92" s="3" t="s">
         <v>22</v>
       </c>
@@ -5231,7 +5601,7 @@
       <c r="G92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H92" s="87">
+      <c r="H92" s="47">
         <v>0.82430000000000003</v>
       </c>
       <c r="I92" s="3" t="s">
@@ -5249,11 +5619,13 @@
       <c r="O92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="1:16" s="5" customFormat="1">
-      <c r="A93" s="51"/>
-      <c r="B93" s="55"/>
+      <c r="P92" s="33">
+        <v>0.74360000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="81"/>
+      <c r="B93" s="84"/>
       <c r="C93" s="3" t="s">
         <v>25</v>
       </c>
@@ -5269,7 +5641,7 @@
       <c r="G93" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H93" s="87">
+      <c r="H93" s="47">
         <v>0.81240000000000001</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -5287,11 +5659,13 @@
       <c r="O93" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A94" s="51"/>
-      <c r="B94" s="55"/>
+      <c r="P93" s="33">
+        <v>0.70920000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="81"/>
+      <c r="B94" s="84"/>
       <c r="C94" s="14" t="s">
         <v>28</v>
       </c>
@@ -5307,7 +5681,7 @@
       <c r="G94" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H94" s="88" t="s">
+      <c r="H94" s="48" t="s">
         <v>31</v>
       </c>
       <c r="I94" s="14" t="s">
@@ -5325,11 +5699,11 @@
       <c r="O94" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P94" s="14"/>
-    </row>
-    <row r="95" spans="1:16" s="5" customFormat="1">
-      <c r="A95" s="51"/>
-      <c r="B95" s="65" t="s">
+      <c r="P94" s="38"/>
+    </row>
+    <row r="95" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="81"/>
+      <c r="B95" s="95" t="s">
         <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5359,11 +5733,11 @@
       <c r="O95" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P95" s="2"/>
-    </row>
-    <row r="96" spans="1:16" s="5" customFormat="1">
-      <c r="A96" s="51"/>
-      <c r="B96" s="66"/>
+      <c r="P95" s="33"/>
+    </row>
+    <row r="96" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="81"/>
+      <c r="B96" s="96"/>
       <c r="C96" s="3" t="s">
         <v>22</v>
       </c>
@@ -5391,11 +5765,11 @@
       <c r="O96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="1:16" s="5" customFormat="1">
-      <c r="A97" s="51"/>
-      <c r="B97" s="66"/>
+      <c r="P96" s="33"/>
+    </row>
+    <row r="97" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="81"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="3" t="s">
         <v>25</v>
       </c>
@@ -5423,11 +5797,11 @@
       <c r="O97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="1:16" s="7" customFormat="1">
-      <c r="A98" s="52"/>
-      <c r="B98" s="67"/>
+      <c r="P97" s="33"/>
+    </row>
+    <row r="98" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="82"/>
+      <c r="B98" s="97"/>
       <c r="C98" s="10" t="s">
         <v>28</v>
       </c>
@@ -5455,66 +5829,72 @@
       <c r="O98" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P98" s="10"/>
-    </row>
-    <row r="99" spans="1:16" s="4" customFormat="1">
-      <c r="A99" s="50" t="s">
+      <c r="P98" s="35"/>
+    </row>
+    <row r="99" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="9" t="s">
+      <c r="C99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="G99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="32">
-        <v>0.87350000000000005</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P99" s="9"/>
-    </row>
-    <row r="100" spans="1:16" s="5" customFormat="1">
-      <c r="A100" s="51"/>
-      <c r="B100" s="55"/>
+      <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="46">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N99" s="3"/>
+      <c r="O99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P99" s="33">
+        <v>0.88819999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="111"/>
+      <c r="B100" s="114"/>
       <c r="C100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="67" t="s">
         <v>144</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H100" s="33">
-        <v>0.82079999999999997</v>
+      <c r="H100" s="47">
+        <v>0.83479999999999999</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>22</v>
@@ -5531,26 +5911,30 @@
       <c r="O100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="1:16" s="5" customFormat="1">
-      <c r="A101" s="51"/>
-      <c r="B101" s="55"/>
+      <c r="P100" s="33">
+        <v>0.77880000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="111"/>
+      <c r="B101" s="114"/>
       <c r="C101" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="E101" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="67" t="s">
         <v>145</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H101" s="33">
-        <v>0.78110000000000002</v>
+      <c r="H101" s="47">
+        <v>0.81950000000000001</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>25</v>
@@ -5567,83 +5951,91 @@
       <c r="O101" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A102" s="51"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F102" s="26" t="s">
+      <c r="P101" s="33">
+        <v>0.74509999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="111"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" s="34"/>
-      <c r="I102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P102" s="6"/>
-    </row>
-    <row r="103" spans="1:16" s="5" customFormat="1">
-      <c r="A103" s="51"/>
-      <c r="B103" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="G102" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="P102" s="50"/>
+    </row>
+    <row r="103" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="111"/>
+      <c r="B103" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="33">
+      <c r="C103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="47">
         <v>0.84409999999999996</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P103" s="2"/>
-    </row>
-    <row r="104" spans="1:16" s="5" customFormat="1">
-      <c r="A104" s="51"/>
-      <c r="B104" s="57"/>
+      <c r="I103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P103" s="33">
+        <v>0.75880000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="111"/>
+      <c r="B104" s="114"/>
       <c r="C104" s="3" t="s">
         <v>22</v>
       </c>
@@ -5657,8 +6049,8 @@
       <c r="G104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H104" s="33">
-        <v>0.68279999999999996</v>
+      <c r="H104" s="47">
+        <v>0.78169999999999995</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>22</v>
@@ -5675,11 +6067,13 @@
       <c r="O104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="1:16" s="5" customFormat="1">
-      <c r="A105" s="51"/>
-      <c r="B105" s="57"/>
+      <c r="P104" s="33">
+        <v>0.69210000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="111"/>
+      <c r="B105" s="114"/>
       <c r="C105" s="3" t="s">
         <v>25</v>
       </c>
@@ -5693,8 +6087,8 @@
       <c r="G105" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H105" s="33">
-        <v>0.6694</v>
+      <c r="H105" s="47">
+        <v>0.78280000000000005</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>25</v>
@@ -5711,89 +6105,97 @@
       <c r="O105" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A106" s="51"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F106" s="24" t="s">
+      <c r="P105" s="33">
+        <v>0.66020000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="111"/>
+      <c r="B106" s="114"/>
+      <c r="C106" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" s="34" t="s">
+      <c r="G106" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P106" s="14"/>
-    </row>
-    <row r="107" spans="1:16" s="5" customFormat="1">
-      <c r="A107" s="51"/>
-      <c r="B107" s="56" t="s">
+      <c r="I106" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N106" s="49"/>
+      <c r="O106" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106" s="50"/>
+    </row>
+    <row r="107" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="111"/>
+      <c r="B107" s="116" t="s">
         <v>150</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="13"/>
+      <c r="D107" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="3" t="s">
         <v>151</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H107" s="37">
-        <v>0.89710000000000001</v>
+      <c r="H107" s="46">
+        <v>0.93530000000000002</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="13"/>
+      <c r="J107" s="3"/>
       <c r="K107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L107" s="13"/>
+      <c r="L107" s="3"/>
       <c r="M107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N107" s="13"/>
+      <c r="N107" s="3"/>
       <c r="O107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P107" s="13"/>
-    </row>
-    <row r="108" spans="1:16" s="5" customFormat="1">
-      <c r="A108" s="51"/>
-      <c r="B108" s="57"/>
+      <c r="P107" s="33">
+        <v>0.88819999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="111"/>
+      <c r="B108" s="114"/>
       <c r="C108" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E108" s="3" t="s">
         <v>22</v>
       </c>
@@ -5803,8 +6205,8 @@
       <c r="G108" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="33">
-        <v>0.82920000000000005</v>
+      <c r="H108" s="47">
+        <v>0.83479999999999999</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>22</v>
@@ -5821,15 +6223,19 @@
       <c r="O108" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P108" s="3"/>
-    </row>
-    <row r="109" spans="1:16" s="5" customFormat="1">
-      <c r="A109" s="51"/>
-      <c r="B109" s="57"/>
+      <c r="P108" s="33">
+        <v>0.77880000000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="111"/>
+      <c r="B109" s="114"/>
       <c r="C109" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E109" s="3" t="s">
         <v>25</v>
       </c>
@@ -5839,8 +6245,8 @@
       <c r="G109" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H109" s="33">
-        <v>0.81359999999999999</v>
+      <c r="H109" s="47">
+        <v>0.81950000000000001</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>25</v>
@@ -5857,81 +6263,93 @@
       <c r="O109" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P109" s="3"/>
-    </row>
-    <row r="110" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A110" s="51"/>
-      <c r="B110" s="57"/>
+      <c r="P109" s="33">
+        <v>0.74509999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="112"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="14"/>
+      <c r="D110" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="E110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F110" s="26" t="s">
+      <c r="F110" s="66" t="s">
         <v>30</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H110" s="34" t="s">
-        <v>31</v>
+      <c r="H110" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="I110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J110" s="14"/>
+      <c r="J110" s="3"/>
       <c r="K110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L110" s="14"/>
+      <c r="L110" s="3"/>
       <c r="M110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N110" s="14"/>
+      <c r="N110" s="3"/>
       <c r="O110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P110" s="14"/>
-    </row>
-    <row r="111" spans="1:16" s="5" customFormat="1">
-      <c r="A111" s="51"/>
-      <c r="B111" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="33"/>
-      <c r="I111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P111" s="2"/>
-    </row>
-    <row r="112" spans="1:16" s="5" customFormat="1">
-      <c r="A112" s="51"/>
-      <c r="B112" s="66"/>
+      <c r="P110" s="33"/>
+    </row>
+    <row r="111" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="32">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P111" s="32">
+        <v>0.80879999999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="81"/>
+      <c r="B112" s="84"/>
       <c r="C112" s="3" t="s">
         <v>22</v>
       </c>
@@ -5939,11 +6357,15 @@
       <c r="E112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="G112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H112" s="33"/>
+      <c r="H112" s="33">
+        <v>0.82079999999999997</v>
+      </c>
       <c r="I112" s="3" t="s">
         <v>22</v>
       </c>
@@ -5959,11 +6381,13 @@
       <c r="O112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P112" s="3"/>
-    </row>
-    <row r="113" spans="1:16" s="5" customFormat="1">
-      <c r="A113" s="51"/>
-      <c r="B113" s="66"/>
+      <c r="P112" s="33">
+        <v>0.7913</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="81"/>
+      <c r="B113" s="84"/>
       <c r="C113" s="3" t="s">
         <v>25</v>
       </c>
@@ -5971,11 +6395,15 @@
       <c r="E113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="F113" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="G113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H113" s="33"/>
+      <c r="H113" s="33">
+        <v>0.78110000000000002</v>
+      </c>
       <c r="I113" s="3" t="s">
         <v>25</v>
       </c>
@@ -5991,79 +6419,87 @@
       <c r="O113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P113" s="3"/>
-    </row>
-    <row r="114" spans="1:16" s="7" customFormat="1">
-      <c r="A114" s="52"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" s="35"/>
-      <c r="I114" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N114" s="10"/>
-      <c r="O114" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P114" s="10"/>
-    </row>
-    <row r="115" spans="1:16" s="4" customFormat="1">
-      <c r="A115" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="68" t="s">
-        <v>155</v>
+      <c r="P113" s="33">
+        <v>0.74429999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="81"/>
+      <c r="B114" s="84"/>
+      <c r="C114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="34"/>
+      <c r="I114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P114" s="34"/>
+    </row>
+    <row r="115" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="81"/>
+      <c r="B115" s="85" t="s">
+        <v>160</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="11"/>
+      <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="11"/>
+      <c r="F115" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="G115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="32"/>
+      <c r="H115" s="33">
+        <v>0.84409999999999996</v>
+      </c>
       <c r="I115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J115" s="11"/>
+      <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L115" s="11"/>
+      <c r="L115" s="2"/>
       <c r="M115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N115" s="11"/>
+      <c r="N115" s="2"/>
       <c r="O115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P115" s="11"/>
-    </row>
-    <row r="116" spans="1:16" s="5" customFormat="1">
-      <c r="A116" s="48"/>
-      <c r="B116" s="69"/>
+      <c r="P115" s="33">
+        <v>0.78239999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="81"/>
+      <c r="B116" s="86"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -6071,11 +6507,15 @@
       <c r="E116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F116" s="3"/>
+      <c r="F116" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="G116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H116" s="33"/>
+      <c r="H116" s="33">
+        <v>0.68279999999999996</v>
+      </c>
       <c r="I116" s="3" t="s">
         <v>22</v>
       </c>
@@ -6091,11 +6531,13 @@
       <c r="O116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P116" s="3"/>
-    </row>
-    <row r="117" spans="1:16" s="5" customFormat="1">
-      <c r="A117" s="48"/>
-      <c r="B117" s="69"/>
+      <c r="P116" s="33">
+        <v>0.64570000000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="81"/>
+      <c r="B117" s="86"/>
       <c r="C117" s="3" t="s">
         <v>25</v>
       </c>
@@ -6103,11 +6545,15 @@
       <c r="E117" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="3"/>
+      <c r="F117" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="G117" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H117" s="33"/>
+      <c r="H117" s="33">
+        <v>0.6694</v>
+      </c>
       <c r="I117" s="3" t="s">
         <v>25</v>
       </c>
@@ -6123,434 +6569,472 @@
       <c r="O117" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P117" s="3"/>
-    </row>
-    <row r="118" spans="1:16" s="5" customFormat="1">
-      <c r="A118" s="48"/>
-      <c r="B118" s="69"/>
+      <c r="P117" s="33">
+        <v>0.61729999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="81"/>
+      <c r="B118" s="86"/>
       <c r="C118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F118" s="3"/>
+      <c r="F118" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="G118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="33"/>
+      <c r="H118" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J118" s="3"/>
+      <c r="J118" s="14"/>
       <c r="K118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L118" s="3"/>
+      <c r="L118" s="14"/>
       <c r="M118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N118" s="3"/>
+      <c r="N118" s="14"/>
       <c r="O118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P118" s="3"/>
-    </row>
-    <row r="119" spans="1:16" s="5" customFormat="1">
-      <c r="A119" s="48"/>
-      <c r="B119" s="70" t="s">
-        <v>156</v>
+      <c r="P118" s="38"/>
+    </row>
+    <row r="119" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="81"/>
+      <c r="B119" s="85" t="s">
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D119" s="16"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="16"/>
+      <c r="F119" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="G119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H119" s="39"/>
+      <c r="H119" s="37">
+        <v>0.89710000000000001</v>
+      </c>
       <c r="I119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J119" s="16"/>
+      <c r="J119" s="13"/>
       <c r="K119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L119" s="16"/>
+      <c r="L119" s="13"/>
       <c r="M119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N119" s="16"/>
+      <c r="N119" s="13"/>
       <c r="O119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P119" s="16"/>
-    </row>
-    <row r="120" spans="1:16" s="5" customFormat="1">
-      <c r="A120" s="48"/>
-      <c r="B120" s="55"/>
+      <c r="P119" s="33">
+        <v>0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="81"/>
+      <c r="B120" s="86"/>
       <c r="C120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="12"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F120" s="12"/>
+      <c r="F120" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="40"/>
+      <c r="H120" s="33">
+        <v>0.82920000000000005</v>
+      </c>
       <c r="I120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J120" s="12"/>
+      <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L120" s="12"/>
+      <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N120" s="12"/>
+      <c r="N120" s="3"/>
       <c r="O120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P120" s="12"/>
-    </row>
-    <row r="121" spans="1:16" s="5" customFormat="1">
-      <c r="A121" s="48"/>
-      <c r="B121" s="55"/>
+      <c r="P120" s="33">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="81"/>
+      <c r="B121" s="86"/>
       <c r="C121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="12"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F121" s="12"/>
+      <c r="F121" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="G121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H121" s="40"/>
+      <c r="H121" s="33">
+        <v>0.81359999999999999</v>
+      </c>
       <c r="I121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J121" s="12"/>
+      <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L121" s="12"/>
+      <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N121" s="12"/>
+      <c r="N121" s="3"/>
       <c r="O121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P121" s="12"/>
-    </row>
-    <row r="122" spans="1:16" s="5" customFormat="1">
-      <c r="A122" s="48"/>
-      <c r="B122" s="55"/>
+      <c r="P121" s="33">
+        <v>0.78690000000000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="81"/>
+      <c r="B122" s="86"/>
       <c r="C122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D122" s="17"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="17"/>
+      <c r="F122" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="41"/>
+      <c r="H122" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="I122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J122" s="17"/>
+      <c r="J122" s="14"/>
       <c r="K122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L122" s="17"/>
+      <c r="L122" s="14"/>
       <c r="M122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N122" s="17"/>
+      <c r="N122" s="14"/>
       <c r="O122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P122" s="17"/>
-    </row>
-    <row r="123" spans="1:16" s="5" customFormat="1">
-      <c r="A123" s="48"/>
-      <c r="B123" s="71" t="s">
-        <v>157</v>
+      <c r="P122" s="38"/>
+    </row>
+    <row r="123" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="81"/>
+      <c r="B123" s="95" t="s">
+        <v>45</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="16"/>
+      <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="16"/>
+      <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="33"/>
       <c r="I123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J123" s="16"/>
+      <c r="J123" s="2"/>
       <c r="K123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L123" s="16"/>
+      <c r="L123" s="2"/>
       <c r="M123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N123" s="16"/>
+      <c r="N123" s="2"/>
       <c r="O123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P123" s="16"/>
-    </row>
-    <row r="124" spans="1:16" s="5" customFormat="1">
-      <c r="A124" s="48"/>
-      <c r="B124" s="69"/>
+      <c r="P123" s="33"/>
+    </row>
+    <row r="124" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="81"/>
+      <c r="B124" s="96"/>
       <c r="C124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D124" s="12"/>
+      <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F124" s="12"/>
+      <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H124" s="40"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J124" s="12"/>
+      <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L124" s="12"/>
+      <c r="L124" s="3"/>
       <c r="M124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N124" s="12"/>
+      <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P124" s="12"/>
-    </row>
-    <row r="125" spans="1:16" s="5" customFormat="1">
-      <c r="A125" s="48"/>
-      <c r="B125" s="69"/>
+      <c r="P124" s="33"/>
+    </row>
+    <row r="125" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="81"/>
+      <c r="B125" s="96"/>
       <c r="C125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D125" s="12"/>
+      <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F125" s="12"/>
+      <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H125" s="40"/>
+      <c r="H125" s="33"/>
       <c r="I125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J125" s="12"/>
+      <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L125" s="12"/>
+      <c r="L125" s="3"/>
       <c r="M125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N125" s="12"/>
+      <c r="N125" s="3"/>
       <c r="O125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P125" s="12"/>
-    </row>
-    <row r="126" spans="1:16" s="5" customFormat="1">
-      <c r="A126" s="48"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="17"/>
-      <c r="E126" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J126" s="17"/>
-      <c r="K126" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N126" s="17"/>
-      <c r="O126" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P126" s="17"/>
-    </row>
-    <row r="127" spans="1:16" s="5" customFormat="1">
-      <c r="A127" s="48"/>
-      <c r="B127" s="55" t="s">
-        <v>158</v>
+      <c r="P125" s="33"/>
+    </row>
+    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="82"/>
+      <c r="B126" s="97"/>
+      <c r="C126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" s="35"/>
+      <c r="I126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P126" s="35"/>
+    </row>
+    <row r="127" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" s="98" t="s">
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="16"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="16"/>
+      <c r="F127" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="39"/>
+      <c r="H127" s="32"/>
       <c r="I127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J127" s="16"/>
+      <c r="J127" s="11"/>
       <c r="K127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L127" s="16"/>
+      <c r="L127" s="11"/>
       <c r="M127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N127" s="16"/>
+      <c r="N127" s="11"/>
       <c r="O127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P127" s="16"/>
-    </row>
-    <row r="128" spans="1:16" s="5" customFormat="1">
-      <c r="A128" s="48"/>
-      <c r="B128" s="55"/>
+      <c r="P127" s="32"/>
+    </row>
+    <row r="128" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="78"/>
+      <c r="B128" s="99"/>
       <c r="C128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="12"/>
+      <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F128" s="12"/>
+      <c r="F128" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="G128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H128" s="40"/>
+      <c r="H128" s="33"/>
       <c r="I128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J128" s="12"/>
+      <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L128" s="12"/>
+      <c r="L128" s="3"/>
       <c r="M128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N128" s="12"/>
+      <c r="N128" s="3"/>
       <c r="O128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P128" s="12"/>
-    </row>
-    <row r="129" spans="1:16" s="5" customFormat="1">
-      <c r="A129" s="48"/>
-      <c r="B129" s="55"/>
+      <c r="P128" s="33"/>
+    </row>
+    <row r="129" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="78"/>
+      <c r="B129" s="99"/>
       <c r="C129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="12"/>
+      <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F129" s="12"/>
+      <c r="F129" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="G129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H129" s="40"/>
+      <c r="H129" s="33"/>
       <c r="I129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J129" s="12"/>
+      <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L129" s="12"/>
+      <c r="L129" s="3"/>
       <c r="M129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N129" s="12"/>
+      <c r="N129" s="3"/>
       <c r="O129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P129" s="12"/>
-    </row>
-    <row r="130" spans="1:16" s="5" customFormat="1">
-      <c r="A130" s="48"/>
-      <c r="B130" s="55"/>
+      <c r="P129" s="33"/>
+    </row>
+    <row r="130" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="78"/>
+      <c r="B130" s="99"/>
       <c r="C130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="17"/>
+      <c r="D130" s="3"/>
       <c r="E130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F130" s="17"/>
+      <c r="F130" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H130" s="41"/>
+      <c r="H130" s="33"/>
       <c r="I130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J130" s="17"/>
+      <c r="J130" s="3"/>
       <c r="K130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L130" s="17"/>
+      <c r="L130" s="3"/>
       <c r="M130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N130" s="17"/>
+      <c r="N130" s="3"/>
       <c r="O130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P130" s="17"/>
-    </row>
-    <row r="131" spans="1:16" s="5" customFormat="1">
-      <c r="A131" s="48"/>
-      <c r="B131" s="71" t="s">
-        <v>159</v>
+      <c r="P130" s="33"/>
+    </row>
+    <row r="131" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="78"/>
+      <c r="B131" s="100" t="s">
+        <v>172</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -6559,7 +7043,9 @@
       <c r="E131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="16"/>
+      <c r="F131" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="G131" s="2" t="s">
         <v>19</v>
       </c>
@@ -6579,11 +7065,11 @@
       <c r="O131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P131" s="16"/>
-    </row>
-    <row r="132" spans="1:16" s="5" customFormat="1">
-      <c r="A132" s="48"/>
-      <c r="B132" s="69"/>
+      <c r="P131" s="39"/>
+    </row>
+    <row r="132" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="78"/>
+      <c r="B132" s="84"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -6591,7 +7077,9 @@
       <c r="E132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F132" s="12"/>
+      <c r="F132" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="G132" s="3" t="s">
         <v>22</v>
       </c>
@@ -6611,11 +7099,11 @@
       <c r="O132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P132" s="12"/>
-    </row>
-    <row r="133" spans="1:16" s="5" customFormat="1">
-      <c r="A133" s="48"/>
-      <c r="B133" s="69"/>
+      <c r="P132" s="40"/>
+    </row>
+    <row r="133" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="78"/>
+      <c r="B133" s="84"/>
       <c r="C133" s="3" t="s">
         <v>25</v>
       </c>
@@ -6623,7 +7111,9 @@
       <c r="E133" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F133" s="12"/>
+      <c r="F133" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="G133" s="3" t="s">
         <v>25</v>
       </c>
@@ -6643,11 +7133,11 @@
       <c r="O133" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P133" s="12"/>
-    </row>
-    <row r="134" spans="1:16" s="5" customFormat="1">
-      <c r="A134" s="48"/>
-      <c r="B134" s="72"/>
+      <c r="P133" s="40"/>
+    </row>
+    <row r="134" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="78"/>
+      <c r="B134" s="84"/>
       <c r="C134" s="14" t="s">
         <v>28</v>
       </c>
@@ -6655,7 +7145,9 @@
       <c r="E134" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F134" s="17"/>
+      <c r="F134" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G134" s="14" t="s">
         <v>28</v>
       </c>
@@ -6675,12 +7167,12 @@
       <c r="O134" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P134" s="17"/>
-    </row>
-    <row r="135" spans="1:16" s="5" customFormat="1">
-      <c r="A135" s="48"/>
-      <c r="B135" s="55" t="s">
-        <v>160</v>
+      <c r="P134" s="41"/>
+    </row>
+    <row r="135" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="78"/>
+      <c r="B135" s="101" t="s">
+        <v>176</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
@@ -6689,7 +7181,9 @@
       <c r="E135" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F135" s="16"/>
+      <c r="F135" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="G135" s="2" t="s">
         <v>19</v>
       </c>
@@ -6709,11 +7203,11 @@
       <c r="O135" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P135" s="16"/>
-    </row>
-    <row r="136" spans="1:16" s="5" customFormat="1">
-      <c r="A136" s="48"/>
-      <c r="B136" s="55"/>
+      <c r="P135" s="39"/>
+    </row>
+    <row r="136" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="78"/>
+      <c r="B136" s="99"/>
       <c r="C136" s="3" t="s">
         <v>22</v>
       </c>
@@ -6721,7 +7215,9 @@
       <c r="E136" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F136" s="12"/>
+      <c r="F136" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="G136" s="3" t="s">
         <v>22</v>
       </c>
@@ -6741,11 +7237,11 @@
       <c r="O136" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P136" s="12"/>
-    </row>
-    <row r="137" spans="1:16" s="5" customFormat="1">
-      <c r="A137" s="48"/>
-      <c r="B137" s="55"/>
+      <c r="P136" s="40"/>
+    </row>
+    <row r="137" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="78"/>
+      <c r="B137" s="99"/>
       <c r="C137" s="3" t="s">
         <v>25</v>
       </c>
@@ -6753,7 +7249,9 @@
       <c r="E137" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F137" s="12"/>
+      <c r="F137" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="G137" s="3" t="s">
         <v>25</v>
       </c>
@@ -6773,11 +7271,11 @@
       <c r="O137" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P137" s="12"/>
-    </row>
-    <row r="138" spans="1:16" s="5" customFormat="1">
-      <c r="A138" s="48"/>
-      <c r="B138" s="55"/>
+      <c r="P137" s="40"/>
+    </row>
+    <row r="138" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="78"/>
+      <c r="B138" s="102"/>
       <c r="C138" s="14" t="s">
         <v>28</v>
       </c>
@@ -6785,7 +7283,9 @@
       <c r="E138" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F138" s="17"/>
+      <c r="F138" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G138" s="14" t="s">
         <v>28</v>
       </c>
@@ -6805,12 +7305,12 @@
       <c r="O138" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P138" s="17"/>
-    </row>
-    <row r="139" spans="1:16" s="5" customFormat="1">
-      <c r="A139" s="48"/>
-      <c r="B139" s="58" t="s">
-        <v>45</v>
+      <c r="P138" s="41"/>
+    </row>
+    <row r="139" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="78"/>
+      <c r="B139" s="84" t="s">
+        <v>179</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
@@ -6819,7 +7319,9 @@
       <c r="E139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F139" s="16"/>
+      <c r="F139" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="G139" s="2" t="s">
         <v>19</v>
       </c>
@@ -6839,11 +7341,11 @@
       <c r="O139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P139" s="16"/>
-    </row>
-    <row r="140" spans="1:16" s="5" customFormat="1">
-      <c r="A140" s="48"/>
-      <c r="B140" s="59"/>
+      <c r="P139" s="39"/>
+    </row>
+    <row r="140" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="78"/>
+      <c r="B140" s="84"/>
       <c r="C140" s="3" t="s">
         <v>22</v>
       </c>
@@ -6851,7 +7353,9 @@
       <c r="E140" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F140" s="12"/>
+      <c r="F140" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G140" s="3" t="s">
         <v>22</v>
       </c>
@@ -6871,11 +7375,11 @@
       <c r="O140" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P140" s="12"/>
-    </row>
-    <row r="141" spans="1:16" s="5" customFormat="1">
-      <c r="A141" s="48"/>
-      <c r="B141" s="59"/>
+      <c r="P140" s="40"/>
+    </row>
+    <row r="141" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="78"/>
+      <c r="B141" s="84"/>
       <c r="C141" s="3" t="s">
         <v>25</v>
       </c>
@@ -6883,7 +7387,9 @@
       <c r="E141" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F141" s="12"/>
+      <c r="F141" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="G141" s="3" t="s">
         <v>25</v>
       </c>
@@ -6903,195 +7409,195 @@
       <c r="O141" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P141" s="12"/>
-    </row>
-    <row r="142" spans="1:16" s="7" customFormat="1">
-      <c r="A142" s="49"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="10" t="s">
+      <c r="P141" s="40"/>
+    </row>
+    <row r="142" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="78"/>
+      <c r="B142" s="84"/>
+      <c r="C142" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D142" s="17"/>
-      <c r="E142" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F142" s="15"/>
-      <c r="G142" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H142" s="42"/>
-      <c r="I142" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J142" s="15"/>
-      <c r="K142" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L142" s="15"/>
-      <c r="M142" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N142" s="15"/>
-      <c r="O142" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P142" s="17"/>
-    </row>
-    <row r="143" spans="1:16" s="4" customFormat="1">
-      <c r="A143" s="50" t="s">
+      <c r="E142" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" s="41"/>
+      <c r="I142" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J142" s="17"/>
+      <c r="K142" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N142" s="17"/>
+      <c r="O142" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P142" s="41"/>
+    </row>
+    <row r="143" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="78"/>
+      <c r="B143" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="16"/>
+      <c r="E143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="16"/>
+      <c r="K143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L143" s="16"/>
+      <c r="M143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N143" s="16"/>
+      <c r="O143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P143" s="39"/>
+    </row>
+    <row r="144" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="78"/>
+      <c r="B144" s="99"/>
+      <c r="C144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="12"/>
+      <c r="E144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="40"/>
+      <c r="I144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="12"/>
+      <c r="K144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" s="12"/>
+      <c r="M144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144" s="12"/>
+      <c r="O144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P144" s="40"/>
+    </row>
+    <row r="145" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="78"/>
+      <c r="B145" s="99"/>
+      <c r="C145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="12"/>
+      <c r="E145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" s="40"/>
+      <c r="I145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J145" s="12"/>
+      <c r="K145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L145" s="12"/>
+      <c r="M145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N145" s="12"/>
+      <c r="O145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P145" s="40"/>
+    </row>
+    <row r="146" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="78"/>
+      <c r="B146" s="102"/>
+      <c r="C146" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H146" s="41"/>
+      <c r="I146" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J146" s="17"/>
+      <c r="K146" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N146" s="17"/>
+      <c r="O146" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" s="41"/>
+    </row>
+    <row r="147" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="78"/>
+      <c r="B147" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="16"/>
+      <c r="E147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B143" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" s="33"/>
-      <c r="I143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J143" s="3"/>
-      <c r="K143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L143" s="3"/>
-      <c r="M143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N143" s="3"/>
-      <c r="O143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P143" s="11"/>
-    </row>
-    <row r="144" spans="1:16" s="5" customFormat="1">
-      <c r="A144" s="51"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="33"/>
-      <c r="I144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N144" s="3"/>
-      <c r="O144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P144" s="3"/>
-    </row>
-    <row r="145" spans="1:16" s="5" customFormat="1">
-      <c r="A145" s="51"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" s="33"/>
-      <c r="I145" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P145" s="3"/>
-    </row>
-    <row r="146" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A146" s="51"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H146" s="33"/>
-      <c r="I146" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J146" s="3"/>
-      <c r="K146" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L146" s="3"/>
-      <c r="M146" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N146" s="3"/>
-      <c r="O146" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P146" s="3"/>
-    </row>
-    <row r="147" spans="1:16" s="5" customFormat="1">
-      <c r="A147" s="51"/>
-      <c r="B147" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="16"/>
       <c r="G147" s="2" t="s">
         <v>19</v>
       </c>
@@ -7111,21 +7617,21 @@
       <c r="O147" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P147" s="16"/>
-    </row>
-    <row r="148" spans="1:16" s="5" customFormat="1">
-      <c r="A148" s="51"/>
-      <c r="B148" s="62"/>
+      <c r="P147" s="39"/>
+    </row>
+    <row r="148" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="78"/>
+      <c r="B148" s="84"/>
       <c r="C148" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>168</v>
-      </c>
+      <c r="D148" s="12"/>
       <c r="E148" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F148" s="12"/>
+      <c r="F148" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="G148" s="3" t="s">
         <v>22</v>
       </c>
@@ -7145,21 +7651,21 @@
       <c r="O148" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P148" s="12"/>
-    </row>
-    <row r="149" spans="1:16" s="5" customFormat="1">
-      <c r="A149" s="51"/>
-      <c r="B149" s="62"/>
+      <c r="P148" s="40"/>
+    </row>
+    <row r="149" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="78"/>
+      <c r="B149" s="84"/>
       <c r="C149" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D149" s="12" t="s">
-        <v>169</v>
-      </c>
+      <c r="D149" s="12"/>
       <c r="E149" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F149" s="12"/>
+      <c r="F149" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="G149" s="3" t="s">
         <v>25</v>
       </c>
@@ -7179,21 +7685,21 @@
       <c r="O149" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P149" s="12"/>
-    </row>
-    <row r="150" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A150" s="51"/>
-      <c r="B150" s="62"/>
+      <c r="P149" s="40"/>
+    </row>
+    <row r="150" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="78"/>
+      <c r="B150" s="84"/>
       <c r="C150" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D150" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="D150" s="17"/>
       <c r="E150" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F150" s="17"/>
+      <c r="F150" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G150" s="14" t="s">
         <v>28</v>
       </c>
@@ -7213,19 +7719,17 @@
       <c r="O150" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P150" s="17"/>
-    </row>
-    <row r="151" spans="1:16" s="5" customFormat="1">
-      <c r="A151" s="51"/>
-      <c r="B151" s="56" t="s">
-        <v>170</v>
+      <c r="P150" s="41"/>
+    </row>
+    <row r="151" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="78"/>
+      <c r="B151" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="16" t="s">
-        <v>171</v>
-      </c>
+      <c r="D151" s="16"/>
       <c r="E151" s="2" t="s">
         <v>19</v>
       </c>
@@ -7249,17 +7753,15 @@
       <c r="O151" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P151" s="16"/>
-    </row>
-    <row r="152" spans="1:16" s="5" customFormat="1">
-      <c r="A152" s="51"/>
-      <c r="B152" s="57"/>
+      <c r="P151" s="39"/>
+    </row>
+    <row r="152" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="78"/>
+      <c r="B152" s="88"/>
       <c r="C152" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D152" s="12" t="s">
-        <v>172</v>
-      </c>
+      <c r="D152" s="12"/>
       <c r="E152" s="3" t="s">
         <v>22</v>
       </c>
@@ -7283,22 +7785,20 @@
       <c r="O152" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P152" s="12"/>
-    </row>
-    <row r="153" spans="1:16" s="5" customFormat="1">
-      <c r="A153" s="51"/>
-      <c r="B153" s="57"/>
+      <c r="P152" s="40"/>
+    </row>
+    <row r="153" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="78"/>
+      <c r="B153" s="88"/>
       <c r="C153" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153" s="12"/>
-      <c r="G153" s="3" t="s">
+      <c r="D153" s="12"/>
+      <c r="E153" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="71"/>
+      <c r="G153" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H153" s="40"/>
@@ -7317,22 +7817,20 @@
       <c r="O153" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P153" s="12"/>
-    </row>
-    <row r="154" spans="1:16" s="7" customFormat="1" ht="45">
-      <c r="A154" s="52"/>
-      <c r="B154" s="63"/>
+      <c r="P153" s="40"/>
+    </row>
+    <row r="154" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="79"/>
+      <c r="B154" s="89"/>
       <c r="C154" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D154" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F154" s="15"/>
-      <c r="G154" s="10" t="s">
+      <c r="D154" s="17"/>
+      <c r="E154" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" s="72"/>
+      <c r="G154" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H154" s="42"/>
@@ -7351,673 +7849,1088 @@
       <c r="O154" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P154" s="10"/>
-    </row>
-    <row r="155" spans="1:16">
-      <c r="B155" s="64" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
-      <c r="B156" s="64"/>
+      <c r="P154" s="41"/>
+    </row>
+    <row r="155" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E155" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="52"/>
+      <c r="G155" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" s="53"/>
+      <c r="I155" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" s="52"/>
+      <c r="K155" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L155" s="52"/>
+      <c r="M155" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N155" s="52"/>
+      <c r="O155" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="P155" s="64"/>
+    </row>
+    <row r="156" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="81"/>
+      <c r="B156" s="84"/>
+      <c r="C156" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D156" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
-      <c r="B157" s="64"/>
+        <v>192</v>
+      </c>
+      <c r="E156" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="53"/>
+      <c r="I156" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" s="52"/>
+      <c r="K156" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156" s="52"/>
+      <c r="M156" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="52"/>
+      <c r="O156" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="P156" s="53"/>
+    </row>
+    <row r="157" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="81"/>
+      <c r="B157" s="84"/>
+      <c r="C157" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D157" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
-      <c r="B158" s="64"/>
-    </row>
-    <row r="159" spans="1:16">
-      <c r="B159" s="53"/>
-    </row>
-    <row r="160" spans="1:16">
-      <c r="B160" s="53"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="53"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="53"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="53"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="53"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="53"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="53"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="53"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="53"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="53"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="53"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="53"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="53"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="53"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="53"/>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="53"/>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="53"/>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="53"/>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="53"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="53"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="53"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="53"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="53"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="53"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="53"/>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="53"/>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="53"/>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="53"/>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="53"/>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="53"/>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="53"/>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="53"/>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="53"/>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="53"/>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="53"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="53"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="53"/>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="53"/>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="53"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="53"/>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="53"/>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="53"/>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="53"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="53"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="53"/>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="53"/>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="53"/>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="53"/>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="53"/>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="53"/>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="53"/>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="53"/>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="53"/>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="53"/>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="53"/>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="53"/>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="53"/>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="53"/>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="53"/>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="53"/>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="53"/>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="53"/>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="53"/>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="53"/>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="53"/>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="53"/>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="53"/>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="53"/>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="53"/>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="53"/>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="53"/>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="53"/>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="53"/>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="53"/>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="53"/>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="53"/>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="53"/>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="53"/>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="53"/>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="53"/>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="53"/>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="53"/>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="53"/>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="53"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="53"/>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="53"/>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="53"/>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="53"/>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="53"/>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="53"/>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="53"/>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="53"/>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252" s="53"/>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" s="53"/>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="53"/>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="53"/>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256" s="53"/>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="53"/>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258" s="53"/>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259" s="53"/>
-    </row>
-    <row r="260" spans="2:2">
-      <c r="B260" s="53"/>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261" s="53"/>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262" s="53"/>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" s="53"/>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264" s="53"/>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265" s="53"/>
-    </row>
-    <row r="266" spans="2:2">
-      <c r="B266" s="53"/>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267" s="53"/>
-    </row>
-    <row r="268" spans="2:2">
-      <c r="B268" s="53"/>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" s="53"/>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270" s="53"/>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="53"/>
-    </row>
-    <row r="272" spans="2:2">
-      <c r="B272" s="53"/>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="53"/>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="53"/>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="53"/>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276" s="53"/>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" s="53"/>
-    </row>
-    <row r="278" spans="2:2">
-      <c r="B278" s="53"/>
-    </row>
-    <row r="279" spans="2:2">
-      <c r="B279" s="53"/>
-    </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="53"/>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" s="53"/>
-    </row>
-    <row r="282" spans="2:2">
-      <c r="B282" s="53"/>
-    </row>
-    <row r="283" spans="2:2">
-      <c r="B283" s="53"/>
-    </row>
-    <row r="284" spans="2:2">
-      <c r="B284" s="53"/>
-    </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="53"/>
-    </row>
-    <row r="286" spans="2:2">
-      <c r="B286" s="53"/>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" s="53"/>
-    </row>
-    <row r="288" spans="2:2">
-      <c r="B288" s="53"/>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289" s="53"/>
-    </row>
-    <row r="290" spans="2:2">
-      <c r="B290" s="53"/>
-    </row>
-    <row r="291" spans="2:2">
-      <c r="B291" s="53"/>
-    </row>
-    <row r="292" spans="2:2">
-      <c r="B292" s="53"/>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293" s="53"/>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294" s="53"/>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295" s="53"/>
-    </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="53"/>
-    </row>
-    <row r="297" spans="2:2">
-      <c r="B297" s="53"/>
-    </row>
-    <row r="298" spans="2:2">
-      <c r="B298" s="53"/>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="53"/>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="53"/>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301" s="53"/>
-    </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="53"/>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303" s="53"/>
-    </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="53"/>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="53"/>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="53"/>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307" s="53"/>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="53"/>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="53"/>
-    </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="53"/>
-    </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="53"/>
-    </row>
-    <row r="312" spans="2:2">
-      <c r="B312" s="53"/>
-    </row>
-    <row r="313" spans="2:2">
-      <c r="B313" s="53"/>
-    </row>
-    <row r="314" spans="2:2">
-      <c r="B314" s="53"/>
-    </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="53"/>
-    </row>
-    <row r="316" spans="2:2">
-      <c r="B316" s="53"/>
-    </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="53"/>
-    </row>
-    <row r="318" spans="2:2">
-      <c r="B318" s="53"/>
-    </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="53"/>
-    </row>
-    <row r="320" spans="2:2">
-      <c r="B320" s="53"/>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="53"/>
-    </row>
-    <row r="322" spans="2:2">
-      <c r="B322" s="53"/>
-    </row>
-    <row r="323" spans="2:2">
-      <c r="B323" s="53"/>
-    </row>
-    <row r="324" spans="2:2">
-      <c r="B324" s="53"/>
-    </row>
-    <row r="325" spans="2:2">
-      <c r="B325" s="53"/>
-    </row>
-    <row r="326" spans="2:2">
-      <c r="B326" s="53"/>
-    </row>
-    <row r="327" spans="2:2">
-      <c r="B327" s="53"/>
-    </row>
-    <row r="328" spans="2:2">
-      <c r="B328" s="53"/>
-    </row>
-    <row r="329" spans="2:2">
-      <c r="B329" s="53"/>
-    </row>
-    <row r="330" spans="2:2">
-      <c r="B330" s="53"/>
-    </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="53"/>
-    </row>
-    <row r="332" spans="2:2">
-      <c r="B332" s="53"/>
-    </row>
-    <row r="333" spans="2:2">
-      <c r="B333" s="53"/>
-    </row>
-    <row r="334" spans="2:2">
-      <c r="B334" s="53"/>
-    </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="53"/>
-    </row>
-    <row r="336" spans="2:2">
-      <c r="B336" s="53"/>
-    </row>
-    <row r="337" spans="2:2">
-      <c r="B337" s="53"/>
-    </row>
-    <row r="338" spans="2:2">
-      <c r="B338" s="53"/>
-    </row>
-    <row r="339" spans="2:2">
-      <c r="B339" s="53"/>
-    </row>
-    <row r="340" spans="2:2">
-      <c r="B340" s="53"/>
-    </row>
-    <row r="341" spans="2:2">
-      <c r="B341" s="53"/>
-    </row>
-    <row r="342" spans="2:2">
-      <c r="B342" s="53"/>
-    </row>
-    <row r="343" spans="2:2">
-      <c r="B343" s="53"/>
-    </row>
-    <row r="344" spans="2:2">
-      <c r="B344" s="53"/>
-    </row>
-    <row r="345" spans="2:2">
-      <c r="B345" s="53"/>
-    </row>
-    <row r="346" spans="2:2">
-      <c r="B346" s="53"/>
-    </row>
-    <row r="347" spans="2:2">
-      <c r="B347" s="53"/>
-    </row>
-    <row r="348" spans="2:2">
-      <c r="B348" s="53"/>
-    </row>
-    <row r="349" spans="2:2">
-      <c r="B349" s="53"/>
-    </row>
-    <row r="350" spans="2:2">
-      <c r="B350" s="53"/>
-    </row>
-    <row r="351" spans="2:2">
-      <c r="B351" s="53"/>
-    </row>
-    <row r="352" spans="2:2">
-      <c r="B352" s="53"/>
-    </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="53"/>
-    </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="53"/>
-    </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="53"/>
-    </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="53"/>
-    </row>
-    <row r="357" spans="2:2">
-      <c r="B357" s="53"/>
-    </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="53"/>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="53"/>
-    </row>
-    <row r="360" spans="2:2">
-      <c r="B360" s="53"/>
-    </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="53"/>
-    </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="53"/>
-    </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="53"/>
-    </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="53"/>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="53"/>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="53"/>
-    </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="53"/>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="53"/>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" s="53"/>
-    </row>
-    <row r="370" spans="2:2">
-      <c r="B370" s="53"/>
-    </row>
-    <row r="1048576" ht="15" customHeight="1"/>
+        <v>193</v>
+      </c>
+      <c r="E157" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H157" s="53"/>
+      <c r="I157" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J157" s="52"/>
+      <c r="K157" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="52"/>
+      <c r="M157" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N157" s="52"/>
+      <c r="O157" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P157" s="53"/>
+    </row>
+    <row r="158" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="81"/>
+      <c r="B158" s="84"/>
+      <c r="C158" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" s="52"/>
+      <c r="G158" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" s="53"/>
+      <c r="I158" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J158" s="52"/>
+      <c r="K158" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L158" s="52"/>
+      <c r="M158" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N158" s="52"/>
+      <c r="O158" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P158" s="53"/>
+    </row>
+    <row r="159" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="81"/>
+      <c r="B159" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E159" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="55"/>
+      <c r="G159" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="56"/>
+      <c r="I159" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" s="55"/>
+      <c r="K159" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L159" s="55"/>
+      <c r="M159" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N159" s="55"/>
+      <c r="O159" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="P159" s="56"/>
+    </row>
+    <row r="160" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="81"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E160" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="57"/>
+      <c r="G160" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="58"/>
+      <c r="I160" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="57"/>
+      <c r="K160" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" s="57"/>
+      <c r="M160" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N160" s="57"/>
+      <c r="O160" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="P160" s="58"/>
+    </row>
+    <row r="161" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="81"/>
+      <c r="B161" s="92"/>
+      <c r="C161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E161" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="57"/>
+      <c r="G161" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" s="58"/>
+      <c r="I161" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J161" s="57"/>
+      <c r="K161" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L161" s="57"/>
+      <c r="M161" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N161" s="57"/>
+      <c r="O161" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P161" s="58"/>
+    </row>
+    <row r="162" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="81"/>
+      <c r="B162" s="92"/>
+      <c r="C162" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" s="59"/>
+      <c r="G162" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" s="60"/>
+      <c r="I162" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J162" s="59"/>
+      <c r="K162" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L162" s="59"/>
+      <c r="M162" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N162" s="59"/>
+      <c r="O162" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P162" s="60"/>
+    </row>
+    <row r="163" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="81"/>
+      <c r="B163" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E163" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="55"/>
+      <c r="G163" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="56"/>
+      <c r="I163" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" s="55"/>
+      <c r="K163" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L163" s="55"/>
+      <c r="M163" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N163" s="55"/>
+      <c r="O163" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="P163" s="56"/>
+    </row>
+    <row r="164" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="81"/>
+      <c r="B164" s="86"/>
+      <c r="C164" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E164" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="57"/>
+      <c r="G164" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="58"/>
+      <c r="I164" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" s="57"/>
+      <c r="K164" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164" s="57"/>
+      <c r="M164" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N164" s="57"/>
+      <c r="O164" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="P164" s="58"/>
+    </row>
+    <row r="165" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="81"/>
+      <c r="B165" s="86"/>
+      <c r="C165" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" s="57"/>
+      <c r="G165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" s="58"/>
+      <c r="I165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" s="57"/>
+      <c r="K165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L165" s="57"/>
+      <c r="M165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N165" s="57"/>
+      <c r="O165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P165" s="58"/>
+    </row>
+    <row r="166" spans="1:16" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="82"/>
+      <c r="B166" s="93"/>
+      <c r="C166" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" s="62"/>
+      <c r="G166" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H166" s="63"/>
+      <c r="I166" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J166" s="62"/>
+      <c r="K166" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L166" s="62"/>
+      <c r="M166" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="N166" s="62"/>
+      <c r="O166" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="P166" s="65"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B167" s="94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B168" s="94"/>
+      <c r="D168" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B169" s="94"/>
+      <c r="D169" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B170" s="94"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B171" s="83"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B172" s="83"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B173" s="83"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B174" s="83"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B175" s="83"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B176" s="83"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="83"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="83"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="83"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="83"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="83"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="83"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="83"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="83"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="83"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="83"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="83"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="83"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="83"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="83"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="83"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="83"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="83"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="83"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="83"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="83"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="83"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="83"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="83"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="83"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="83"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="83"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="83"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="83"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="83"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="83"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="83"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="83"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="83"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="83"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="83"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="83"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="83"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="83"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="83"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="83"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="83"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="83"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="83"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="83"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="83"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="83"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="83"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="83"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="83"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="83"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="83"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="83"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="83"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="83"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="83"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="83"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="83"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="83"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="83"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="83"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="83"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="83"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="83"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="83"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="83"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="83"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="83"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="83"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="83"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="83"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="83"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="83"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="83"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="83"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="83"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="83"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="83"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="83"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="83"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="83"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="83"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="83"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="83"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="83"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="83"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="83"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="83"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="83"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="83"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="83"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="83"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="83"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="83"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="83"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="83"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="83"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="83"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="83"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="83"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="83"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="83"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="83"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="83"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="83"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="83"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="83"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="83"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="83"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="83"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="83"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="83"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="83"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="83"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="83"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="83"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="83"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="83"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="83"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="83"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="83"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="83"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="83"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="83"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="83"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="83"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="83"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="83"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="83"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="83"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="83"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="83"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="83"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="83"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="83"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="83"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="83"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="83"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="83"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="83"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="83"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="83"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="83"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="83"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="83"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="83"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="83"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="83"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="83"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="83"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="83"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="83"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="83"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="83"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="83"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="83"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="83"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="83"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="83"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="83"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="83"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="83"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="83"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="83"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="83"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="83"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="83"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="83"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="83"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="83"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="83"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="83"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="83"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="83"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="83"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="83"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="83"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="83"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="83"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="83"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="83"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="83"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="83"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="83"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="83"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="83"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="83"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="83"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="83"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="83"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="83"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="83"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="83"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="83"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="83"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="83"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="83"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="83"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="83"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="83"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="83"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="83"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="83"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="83"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="83"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="83"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="83"/>
+    </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="119">
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A3:A18"/>
@@ -8038,7 +8951,7 @@
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="B91:B94"/>
     <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B115:B118"/>
     <mergeCell ref="A67:A82"/>
     <mergeCell ref="A83:A98"/>
     <mergeCell ref="B55:B58"/>
@@ -8049,78 +8962,82 @@
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="B83:B86"/>
-    <mergeCell ref="A99:A114"/>
+    <mergeCell ref="A111:A126"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="B135:B138"/>
     <mergeCell ref="B139:B142"/>
     <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="B195:B198"/>
     <mergeCell ref="B199:B202"/>
     <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B218"/>
     <mergeCell ref="B171:B174"/>
     <mergeCell ref="B175:B178"/>
     <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B367:B370"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="B379:B382"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B339:B342"/>
+    <mergeCell ref="B343:B346"/>
+    <mergeCell ref="B347:B350"/>
+    <mergeCell ref="B351:B354"/>
+    <mergeCell ref="B355:B358"/>
+    <mergeCell ref="B359:B362"/>
+    <mergeCell ref="B315:B318"/>
+    <mergeCell ref="B319:B322"/>
+    <mergeCell ref="B323:B326"/>
     <mergeCell ref="B327:B330"/>
     <mergeCell ref="B331:B334"/>
     <mergeCell ref="B335:B338"/>
-    <mergeCell ref="B339:B342"/>
-    <mergeCell ref="B343:B346"/>
-    <mergeCell ref="B347:B350"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B299:B302"/>
     <mergeCell ref="B303:B306"/>
     <mergeCell ref="B307:B310"/>
     <mergeCell ref="B311:B314"/>
-    <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B319:B322"/>
-    <mergeCell ref="B323:B326"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="A127:A154"/>
+    <mergeCell ref="A155:A166"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B363:B366"/>
+    <mergeCell ref="B367:B370"/>
+    <mergeCell ref="B371:B374"/>
+    <mergeCell ref="B375:B378"/>
     <mergeCell ref="B279:B282"/>
     <mergeCell ref="B283:B286"/>
     <mergeCell ref="B287:B290"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="B251:B254"/>
     <mergeCell ref="B255:B258"/>
     <mergeCell ref="B259:B262"/>
     <mergeCell ref="B263:B266"/>
-    <mergeCell ref="A115:A142"/>
-    <mergeCell ref="A143:A154"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B351:B354"/>
-    <mergeCell ref="B355:B358"/>
-    <mergeCell ref="B359:B362"/>
-    <mergeCell ref="B363:B366"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="B227:B230"/>
     <mergeCell ref="B231:B234"/>
     <mergeCell ref="B235:B238"/>
     <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="B195:B198"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M1:N1"/>
